--- a/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9801212065749789</v>
+        <v>0.992982221673447</v>
       </c>
       <c r="D2">
-        <v>1.001960384202863</v>
+        <v>1.01299175739799</v>
       </c>
       <c r="E2">
-        <v>0.9885180324602659</v>
+        <v>0.9979439861840075</v>
       </c>
       <c r="F2">
-        <v>0.955889058303902</v>
+        <v>1.001395636215211</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035965274906677</v>
+        <v>1.042118953972835</v>
       </c>
       <c r="J2">
-        <v>1.002913192899338</v>
+        <v>1.015374878686142</v>
       </c>
       <c r="K2">
-        <v>1.013392475157621</v>
+        <v>1.024273015611382</v>
       </c>
       <c r="L2">
-        <v>1.000139681434901</v>
+        <v>1.009432039056669</v>
       </c>
       <c r="M2">
-        <v>0.967999167561621</v>
+        <v>1.012835561792347</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9885845180830541</v>
+        <v>1.001855353104778</v>
       </c>
       <c r="D3">
-        <v>1.008238740282211</v>
+        <v>1.019961083746066</v>
       </c>
       <c r="E3">
-        <v>0.9956105850674538</v>
+        <v>1.005638938991374</v>
       </c>
       <c r="F3">
-        <v>0.9673388085792196</v>
+        <v>1.010495963111974</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038927148994614</v>
+        <v>1.045683834959255</v>
       </c>
       <c r="J3">
-        <v>1.009391293278831</v>
+        <v>1.022295566793529</v>
       </c>
       <c r="K3">
-        <v>1.018767279132827</v>
+        <v>1.030344773751883</v>
       </c>
       <c r="L3">
-        <v>1.006299939086573</v>
+        <v>1.016200173420511</v>
       </c>
       <c r="M3">
-        <v>0.9784073863703893</v>
+        <v>1.020996284747433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9938565220334015</v>
+        <v>1.007382983159589</v>
       </c>
       <c r="D4">
-        <v>1.012151659845614</v>
+        <v>1.02430534396518</v>
       </c>
       <c r="E4">
-        <v>1.00003453675887</v>
+        <v>1.010432789209187</v>
       </c>
       <c r="F4">
-        <v>0.9744568322745141</v>
+        <v>1.01617291241164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040755036968787</v>
+        <v>1.047889181568579</v>
       </c>
       <c r="J4">
-        <v>1.013418694931376</v>
+        <v>1.026599698570175</v>
       </c>
       <c r="K4">
-        <v>1.022105604369972</v>
+        <v>1.034119014633633</v>
       </c>
       <c r="L4">
-        <v>1.010132544970226</v>
+        <v>1.020406909473805</v>
       </c>
       <c r="M4">
-        <v>0.9848736406696953</v>
+        <v>1.026079985902511</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996027364835225</v>
+        <v>1.00965910729408</v>
       </c>
       <c r="D5">
-        <v>1.013763200422734</v>
+        <v>1.026094683346615</v>
       </c>
       <c r="E5">
-        <v>1.001857460795099</v>
+        <v>1.012406711289545</v>
       </c>
       <c r="F5">
-        <v>0.9773850764128207</v>
+        <v>1.018512357145175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04150352324554</v>
+        <v>1.04879351200755</v>
       </c>
       <c r="J5">
-        <v>1.015075106150585</v>
+        <v>1.028370228258058</v>
       </c>
       <c r="K5">
-        <v>1.02347779812337</v>
+        <v>1.035671079458339</v>
       </c>
       <c r="L5">
-        <v>1.011709480639574</v>
+        <v>1.022136764978695</v>
       </c>
       <c r="M5">
-        <v>0.9875326576659162</v>
+        <v>1.028173242019214</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.996389282325156</v>
+        <v>1.010038577001893</v>
       </c>
       <c r="D6">
-        <v>1.01403188746472</v>
+        <v>1.026393022821138</v>
       </c>
       <c r="E6">
-        <v>1.00216144638545</v>
+        <v>1.012735792967359</v>
       </c>
       <c r="F6">
-        <v>0.9778731240800408</v>
+        <v>1.018902490579987</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041628061167506</v>
+        <v>1.048944056085693</v>
       </c>
       <c r="J6">
-        <v>1.015351143555295</v>
+        <v>1.028665299314282</v>
       </c>
       <c r="K6">
-        <v>1.023706422169315</v>
+        <v>1.035929712089667</v>
       </c>
       <c r="L6">
-        <v>1.011972310478881</v>
+        <v>1.022425021367885</v>
       </c>
       <c r="M6">
-        <v>0.987975766850413</v>
+        <v>1.028522219170941</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9938857035340034</v>
+        <v>1.007413579875964</v>
       </c>
       <c r="D7">
-        <v>1.012173321839045</v>
+        <v>1.024329395309448</v>
       </c>
       <c r="E7">
-        <v>1.000059036433705</v>
+        <v>1.01045932391092</v>
       </c>
       <c r="F7">
-        <v>0.9744962050840602</v>
+        <v>1.01620435307917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040765115134076</v>
+        <v>1.047901353025779</v>
       </c>
       <c r="J7">
-        <v>1.013440968948477</v>
+        <v>1.026623506036869</v>
       </c>
       <c r="K7">
-        <v>1.022124059750962</v>
+        <v>1.034139886493939</v>
       </c>
       <c r="L7">
-        <v>1.010153747764222</v>
+        <v>1.02043017243962</v>
       </c>
       <c r="M7">
-        <v>0.9849093979343511</v>
+        <v>1.026108124752533</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.983025908043989</v>
+        <v>0.9960274626937156</v>
       </c>
       <c r="D8">
-        <v>1.004114668725155</v>
+        <v>1.015382969422749</v>
       </c>
       <c r="E8">
-        <v>0.9909509625170355</v>
+        <v>1.000584777797357</v>
       </c>
       <c r="F8">
-        <v>0.9598222394764515</v>
+        <v>1.004517176967428</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036985415799288</v>
+        <v>1.043345649019941</v>
       </c>
       <c r="J8">
-        <v>1.005138218031429</v>
+        <v>1.017751530753206</v>
       </c>
       <c r="K8">
-        <v>1.015239191192055</v>
+        <v>1.02635852352773</v>
       </c>
       <c r="L8">
-        <v>1.002254920196174</v>
+        <v>1.011756833718496</v>
       </c>
       <c r="M8">
-        <v>0.9715754248015265</v>
+        <v>1.015636305922124</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9621473588044627</v>
+        <v>0.9741441968215461</v>
       </c>
       <c r="D9">
-        <v>0.9886458421071512</v>
+        <v>0.9982177617339132</v>
       </c>
       <c r="E9">
-        <v>0.9734946785554469</v>
+        <v>0.9816133887744896</v>
       </c>
       <c r="F9">
-        <v>0.9314521963274113</v>
+        <v>0.9821214466363314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029580506778899</v>
+        <v>1.034465678082442</v>
       </c>
       <c r="J9">
-        <v>0.9891114396320522</v>
+        <v>1.000644231832443</v>
       </c>
       <c r="K9">
-        <v>1.001925858484647</v>
+        <v>1.011339820843715</v>
       </c>
       <c r="L9">
-        <v>0.9870329406810748</v>
+        <v>0.9950119904594404</v>
       </c>
       <c r="M9">
-        <v>0.9457647807187479</v>
+        <v>0.9955114076763317</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9467607029829794</v>
+        <v>0.958032090997037</v>
       </c>
       <c r="D10">
-        <v>0.97727586562116</v>
+        <v>0.9856117745647055</v>
       </c>
       <c r="E10">
-        <v>0.9606780423047891</v>
+        <v>0.9676587165531115</v>
       </c>
       <c r="F10">
-        <v>0.9103638688279753</v>
+        <v>0.9656805149534102</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024033602068658</v>
+        <v>1.027847534298868</v>
       </c>
       <c r="J10">
-        <v>0.9772583221063446</v>
+        <v>0.9880157676606056</v>
       </c>
       <c r="K10">
-        <v>0.9920679012249036</v>
+        <v>1.00024576488052</v>
       </c>
       <c r="L10">
-        <v>0.9757955141203345</v>
+        <v>0.9826375311742133</v>
       </c>
       <c r="M10">
-        <v>0.9265649304698204</v>
+        <v>0.9806983552088914</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9396651715127512</v>
+        <v>0.9506095908329918</v>
       </c>
       <c r="D11">
-        <v>0.972043307723032</v>
+        <v>0.9798155282442661</v>
       </c>
       <c r="E11">
-        <v>0.9547819526110575</v>
+        <v>0.9612357927435063</v>
       </c>
       <c r="F11">
-        <v>0.9005743093258439</v>
+        <v>0.9581188947899503</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021455610196419</v>
+        <v>1.024781068533034</v>
       </c>
       <c r="J11">
-        <v>0.9717827259029733</v>
+        <v>0.9821918791060893</v>
       </c>
       <c r="K11">
-        <v>0.98751243255313</v>
+        <v>0.9951284040593089</v>
       </c>
       <c r="L11">
-        <v>0.9706101490687336</v>
+        <v>0.9769277402970266</v>
       </c>
       <c r="M11">
-        <v>0.9176509992039665</v>
+        <v>0.9738763407894314</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9369554225189164</v>
+        <v>0.9477766520785069</v>
       </c>
       <c r="D12">
-        <v>0.9700469842006512</v>
+        <v>0.9776052845620574</v>
       </c>
       <c r="E12">
-        <v>0.952532700676487</v>
+        <v>0.9587854745569444</v>
       </c>
       <c r="F12">
-        <v>0.8968235942174084</v>
+        <v>0.9552347971997557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020468205104722</v>
+        <v>1.02360818912781</v>
       </c>
       <c r="J12">
-        <v>0.9696902217885044</v>
+        <v>0.9799683083625381</v>
       </c>
       <c r="K12">
-        <v>0.9857714504896636</v>
+        <v>0.9931744873382601</v>
       </c>
       <c r="L12">
-        <v>0.9686295299805507</v>
+        <v>0.9747472967075498</v>
       </c>
       <c r="M12">
-        <v>0.9142358683590867</v>
+        <v>0.9712729962327934</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9375401958006169</v>
+        <v>0.9483879234154001</v>
       </c>
       <c r="D13">
-        <v>0.9704777028834843</v>
+        <v>0.9780820987746415</v>
       </c>
       <c r="E13">
-        <v>0.9530179821615398</v>
+        <v>0.9593141319525759</v>
       </c>
       <c r="F13">
-        <v>0.8976336031644561</v>
+        <v>0.9558570184085572</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020681418229651</v>
+        <v>1.023861374990247</v>
       </c>
       <c r="J13">
-        <v>0.9701418541032619</v>
+        <v>0.9804481265131804</v>
       </c>
       <c r="K13">
-        <v>0.9861472150851696</v>
+        <v>0.9935961209310231</v>
       </c>
       <c r="L13">
-        <v>0.9690569681017956</v>
+        <v>0.9752178277898308</v>
       </c>
       <c r="M13">
-        <v>0.9149733947824409</v>
+        <v>0.9718347072160479</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9394427550501629</v>
+        <v>0.9503770251241991</v>
       </c>
       <c r="D14">
-        <v>0.9718794073169921</v>
+        <v>0.9796340390327866</v>
       </c>
       <c r="E14">
-        <v>0.9545972827184931</v>
+        <v>0.9610346135246296</v>
       </c>
       <c r="F14">
-        <v>0.9002667113592165</v>
+        <v>0.9578820895620649</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02137462136606</v>
+        <v>1.024684832545257</v>
       </c>
       <c r="J14">
-        <v>0.9716110010974771</v>
+        <v>0.9820093531040347</v>
       </c>
       <c r="K14">
-        <v>0.9873695573134031</v>
+        <v>0.9949680147197325</v>
       </c>
       <c r="L14">
-        <v>0.970447585981898</v>
+        <v>0.976748763130332</v>
       </c>
       <c r="M14">
-        <v>0.917370918931574</v>
+        <v>0.9736626143859975</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9406048537182203</v>
+        <v>0.9515922240644152</v>
       </c>
       <c r="D15">
-        <v>0.972735848607159</v>
+        <v>0.9805824371477591</v>
       </c>
       <c r="E15">
-        <v>0.9555622606671071</v>
+        <v>0.9620858589654672</v>
       </c>
       <c r="F15">
-        <v>0.9018733660443161</v>
+        <v>0.9591195198123358</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021797662145207</v>
+        <v>1.025187582917826</v>
       </c>
       <c r="J15">
-        <v>0.9725081855748378</v>
+        <v>0.9829630550504896</v>
       </c>
       <c r="K15">
-        <v>0.9881160123866785</v>
+        <v>0.99580604855278</v>
       </c>
       <c r="L15">
-        <v>0.9712969446470076</v>
+        <v>0.9776839048486755</v>
       </c>
       <c r="M15">
-        <v>0.9188338481600076</v>
+        <v>0.9747793916007735</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9472217526950404</v>
+        <v>0.9585145820466858</v>
       </c>
       <c r="D16">
-        <v>0.9776161121163123</v>
+        <v>0.9859888073472917</v>
       </c>
       <c r="E16">
-        <v>0.9610614716578051</v>
+        <v>0.9680763686997672</v>
       </c>
       <c r="F16">
-        <v>0.9109984533633464</v>
+        <v>0.966172309783187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024200712419443</v>
+        <v>1.028046515836115</v>
       </c>
       <c r="J16">
-        <v>0.9776139194584804</v>
+        <v>0.9883942278819475</v>
       </c>
       <c r="K16">
-        <v>0.9923637218199516</v>
+        <v>1.000578294734719</v>
       </c>
       <c r="L16">
-        <v>0.976132390281515</v>
+        <v>0.9830085160712309</v>
       </c>
       <c r="M16">
-        <v>0.9271427533193993</v>
+        <v>0.9811418623178242</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9512505725026846</v>
+        <v>0.9627316499335886</v>
       </c>
       <c r="D17">
-        <v>0.9805905400278243</v>
+        <v>0.9892854197448664</v>
       </c>
       <c r="E17">
-        <v>0.964413641034787</v>
+        <v>0.9717273935622581</v>
       </c>
       <c r="F17">
-        <v>0.9165362336513312</v>
+        <v>0.9704720844245548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025658758870101</v>
+        <v>1.029783699142686</v>
       </c>
       <c r="J17">
-        <v>0.9807201966618383</v>
+        <v>0.99170136623825</v>
       </c>
       <c r="K17">
-        <v>0.9949476668517858</v>
+        <v>1.003483959220854</v>
       </c>
       <c r="L17">
-        <v>0.9790757887062482</v>
+        <v>0.9862499942072263</v>
       </c>
       <c r="M17">
-        <v>0.9321851044165204</v>
+        <v>0.9850184409995529</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9535594389298854</v>
+        <v>0.9651490587008074</v>
       </c>
       <c r="D18">
-        <v>0.9822961147686106</v>
+        <v>0.9911761863857216</v>
       </c>
       <c r="E18">
-        <v>0.9663360331499267</v>
+        <v>0.9738208320820007</v>
       </c>
       <c r="F18">
-        <v>0.9197040358737087</v>
+        <v>0.9729380474527028</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026492476699658</v>
+        <v>1.030777880537104</v>
       </c>
       <c r="J18">
-        <v>0.9824994765835262</v>
+        <v>0.9935965730486279</v>
       </c>
       <c r="K18">
-        <v>0.9964276018247068</v>
+        <v>1.005148988680913</v>
       </c>
       <c r="L18">
-        <v>0.9807623031646845</v>
+        <v>0.9881072892534148</v>
       </c>
       <c r="M18">
-        <v>0.9350693893276125</v>
+        <v>0.987240848753581</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.954339982211345</v>
+        <v>0.9659663955200488</v>
       </c>
       <c r="D19">
-        <v>0.9828728616304298</v>
+        <v>0.9918156241855581</v>
       </c>
       <c r="E19">
-        <v>0.9669861373074414</v>
+        <v>0.9745287128695304</v>
       </c>
       <c r="F19">
-        <v>0.9207740264339168</v>
+        <v>0.9737719923915544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026774005381887</v>
+        <v>1.031113734254569</v>
       </c>
       <c r="J19">
-        <v>0.983100834184623</v>
+        <v>0.9942372465633196</v>
       </c>
       <c r="K19">
-        <v>0.9969277581982836</v>
+        <v>1.005711831044179</v>
       </c>
       <c r="L19">
-        <v>0.9813323956677075</v>
+        <v>0.9887350979759311</v>
       </c>
       <c r="M19">
-        <v>0.9360435900868381</v>
+        <v>0.9879922830912109</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9508226267532529</v>
+        <v>0.9622836364361155</v>
       </c>
       <c r="D20">
-        <v>0.9802744899064927</v>
+        <v>0.988935087026322</v>
       </c>
       <c r="E20">
-        <v>0.964057431999386</v>
+        <v>0.9713394606089915</v>
       </c>
       <c r="F20">
-        <v>0.9159486266978216</v>
+        <v>0.9700151647521917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025504077465141</v>
+        <v>1.029599314706407</v>
       </c>
       <c r="J20">
-        <v>0.9803903367234504</v>
+        <v>0.991350082387177</v>
       </c>
       <c r="K20">
-        <v>0.9946732891512169</v>
+        <v>1.003175330543127</v>
       </c>
       <c r="L20">
-        <v>0.9787631690750539</v>
+        <v>0.9859057142359176</v>
       </c>
       <c r="M20">
-        <v>0.9316500771810128</v>
+        <v>0.984606580800428</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9388846285373649</v>
+        <v>0.9497934594908868</v>
       </c>
       <c r="D21">
-        <v>0.9714681524238344</v>
+        <v>0.9791786705475785</v>
       </c>
       <c r="E21">
-        <v>0.9541339166844697</v>
+        <v>0.9605298232767825</v>
       </c>
       <c r="F21">
-        <v>0.8994946286315514</v>
+        <v>0.9572879173193222</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021171344172676</v>
+        <v>1.024443312692477</v>
       </c>
       <c r="J21">
-        <v>0.9711800566469885</v>
+        <v>0.9815513378411632</v>
       </c>
       <c r="K21">
-        <v>0.9870110098015957</v>
+        <v>0.9945655459621783</v>
       </c>
       <c r="L21">
-        <v>0.9700396489014571</v>
+        <v>0.9762996461100671</v>
       </c>
       <c r="M21">
-        <v>0.9166679092782974</v>
+        <v>0.9731263281977676</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9309436630821042</v>
+        <v>0.9414955211223104</v>
       </c>
       <c r="D22">
-        <v>0.9656220985647299</v>
+        <v>0.9727089251302206</v>
       </c>
       <c r="E22">
-        <v>0.9475474641121112</v>
+        <v>0.9533550740059233</v>
       </c>
       <c r="F22">
-        <v>0.8884766643063687</v>
+        <v>0.948843930385299</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018272398570451</v>
+        <v>1.021003250490162</v>
       </c>
       <c r="J22">
-        <v>0.965045298480806</v>
+        <v>0.9750370324955262</v>
       </c>
       <c r="K22">
-        <v>0.9819067994679497</v>
+        <v>0.9888411281695899</v>
       </c>
       <c r="L22">
-        <v>0.9642349022280821</v>
+        <v>0.9699108879822607</v>
       </c>
       <c r="M22">
-        <v>0.906636289693643</v>
+        <v>0.9655017988069782</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9351981372187156</v>
+        <v>0.9459400396562655</v>
       </c>
       <c r="D23">
-        <v>0.9687529629210715</v>
+        <v>0.9761729825802206</v>
       </c>
       <c r="E23">
-        <v>0.9510747775419749</v>
+        <v>0.957197267976073</v>
       </c>
       <c r="F23">
-        <v>0.8943874606045142</v>
+        <v>0.9533655762757759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019827072691727</v>
+        <v>1.022847117747553</v>
       </c>
       <c r="J23">
-        <v>0.9683328314610044</v>
+        <v>0.9785265582504585</v>
       </c>
       <c r="K23">
-        <v>0.9846420777681122</v>
+        <v>0.991907560281869</v>
       </c>
       <c r="L23">
-        <v>0.9673450073992036</v>
+        <v>0.9733333903805255</v>
       </c>
       <c r="M23">
-        <v>0.9120177671214359</v>
+        <v>0.9695853602272874</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9510161232849988</v>
+        <v>0.9624862046302997</v>
       </c>
       <c r="D24">
-        <v>0.9804173896198383</v>
+        <v>0.989093485998554</v>
       </c>
       <c r="E24">
-        <v>0.9642184885879272</v>
+        <v>0.9715148619625382</v>
       </c>
       <c r="F24">
-        <v>0.9162143323453701</v>
+        <v>0.9702217562988265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025574022805935</v>
+        <v>1.02968268881462</v>
       </c>
       <c r="J24">
-        <v>0.9805394863280807</v>
+        <v>0.9915089163601376</v>
       </c>
       <c r="K24">
-        <v>0.9947973523679876</v>
+        <v>1.003314878196814</v>
       </c>
       <c r="L24">
-        <v>0.9789045216467707</v>
+        <v>0.9860613822711239</v>
       </c>
       <c r="M24">
-        <v>0.931892007569575</v>
+        <v>0.9847928018096876</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9677789262067682</v>
+        <v>0.9800451772968415</v>
       </c>
       <c r="D25">
-        <v>0.9928142371296275</v>
+        <v>1.002842008190449</v>
       </c>
       <c r="E25">
-        <v>0.9781959271340168</v>
+        <v>0.9867275882054267</v>
       </c>
       <c r="F25">
-        <v>0.9391289657297129</v>
+        <v>0.9881527139505455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031593278177034</v>
+        <v>1.036874063148777</v>
       </c>
       <c r="J25">
-        <v>0.9934415365969997</v>
+        <v>1.005263281896103</v>
       </c>
       <c r="K25">
-        <v>1.005525136513092</v>
+        <v>1.01539636526607</v>
       </c>
       <c r="L25">
-        <v>0.9911424243459964</v>
+        <v>0.9995354958227618</v>
       </c>
       <c r="M25">
-        <v>0.9527519382909393</v>
+        <v>1.000937770711707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.992982221673447</v>
+        <v>1.001123059880896</v>
       </c>
       <c r="D2">
-        <v>1.01299175739799</v>
+        <v>1.019189721827635</v>
       </c>
       <c r="E2">
-        <v>0.9979439861840075</v>
+        <v>1.007393766300545</v>
       </c>
       <c r="F2">
-        <v>1.001395636215211</v>
+        <v>0.9780379752935824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042118953972835</v>
+        <v>1.044109121426104</v>
       </c>
       <c r="J2">
-        <v>1.015374878686142</v>
+        <v>1.023270232229561</v>
       </c>
       <c r="K2">
-        <v>1.024273015611382</v>
+        <v>1.030388033280699</v>
       </c>
       <c r="L2">
-        <v>1.009432039056669</v>
+        <v>1.018751046378941</v>
       </c>
       <c r="M2">
-        <v>1.012835561792347</v>
+        <v>0.9898119992301448</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001855353104778</v>
+        <v>1.005769399294642</v>
       </c>
       <c r="D3">
-        <v>1.019961083746066</v>
+        <v>1.022705615598601</v>
       </c>
       <c r="E3">
-        <v>1.005638938991374</v>
+        <v>1.011111567319998</v>
       </c>
       <c r="F3">
-        <v>1.010495963111974</v>
+        <v>0.9853619451515288</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045683834959255</v>
+        <v>1.045758350049049</v>
       </c>
       <c r="J3">
-        <v>1.022295566793529</v>
+        <v>1.026104010832152</v>
       </c>
       <c r="K3">
-        <v>1.030344773751883</v>
+        <v>1.033055988272741</v>
       </c>
       <c r="L3">
-        <v>1.016200173420511</v>
+        <v>1.021604220618257</v>
       </c>
       <c r="M3">
-        <v>1.020996284747433</v>
+        <v>0.9961856134592899</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007382983159589</v>
+        <v>1.008706200884794</v>
       </c>
       <c r="D4">
-        <v>1.02430534396518</v>
+        <v>1.024929283317765</v>
       </c>
       <c r="E4">
-        <v>1.010432789209187</v>
+        <v>1.013467130436127</v>
       </c>
       <c r="F4">
-        <v>1.01617291241164</v>
+        <v>0.9899792885806417</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047889181568579</v>
+        <v>1.046788665854408</v>
       </c>
       <c r="J4">
-        <v>1.026599698570175</v>
+        <v>1.027889792952828</v>
       </c>
       <c r="K4">
-        <v>1.034119014633633</v>
+        <v>1.0347358633993</v>
       </c>
       <c r="L4">
-        <v>1.020406909473805</v>
+        <v>1.023405691428205</v>
       </c>
       <c r="M4">
-        <v>1.026079985902511</v>
+        <v>1.00020017850981</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00965910729408</v>
+        <v>1.009924819176194</v>
       </c>
       <c r="D5">
-        <v>1.026094683346615</v>
+        <v>1.025852273731302</v>
       </c>
       <c r="E5">
-        <v>1.012406711289545</v>
+        <v>1.014445883442687</v>
       </c>
       <c r="F5">
-        <v>1.018512357145175</v>
+        <v>0.991892787303047</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04879351200755</v>
+        <v>1.047213255832718</v>
       </c>
       <c r="J5">
-        <v>1.028370228258058</v>
+        <v>1.028629500025874</v>
       </c>
       <c r="K5">
-        <v>1.035671079458339</v>
+        <v>1.035431347219204</v>
       </c>
       <c r="L5">
-        <v>1.022136764978695</v>
+        <v>1.024152721857025</v>
       </c>
       <c r="M5">
-        <v>1.028173242019214</v>
+        <v>1.001862969775331</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010038577001893</v>
+        <v>1.010128510270331</v>
       </c>
       <c r="D6">
-        <v>1.026393022821138</v>
+        <v>1.026006566285287</v>
       </c>
       <c r="E6">
-        <v>1.012735792967359</v>
+        <v>1.014609557605028</v>
       </c>
       <c r="F6">
-        <v>1.018902490579987</v>
+        <v>0.9922124937870811</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048944056085693</v>
+        <v>1.047284052117494</v>
       </c>
       <c r="J6">
-        <v>1.028665299314282</v>
+        <v>1.028753064738644</v>
       </c>
       <c r="K6">
-        <v>1.035929712089667</v>
+        <v>1.035547503325647</v>
       </c>
       <c r="L6">
-        <v>1.022425021367885</v>
+        <v>1.024277558225525</v>
       </c>
       <c r="M6">
-        <v>1.028522219170941</v>
+        <v>1.002140733885042</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007413579875964</v>
+        <v>1.008722546184857</v>
       </c>
       <c r="D7">
-        <v>1.024329395309448</v>
+        <v>1.024941662301341</v>
       </c>
       <c r="E7">
-        <v>1.01045932391092</v>
+        <v>1.013480253270022</v>
       </c>
       <c r="F7">
-        <v>1.01620435307917</v>
+        <v>0.9900049634985106</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047901353025779</v>
+        <v>1.046794372520995</v>
       </c>
       <c r="J7">
-        <v>1.026623506036869</v>
+        <v>1.027899719778232</v>
       </c>
       <c r="K7">
-        <v>1.034139886493939</v>
+        <v>1.034745198174585</v>
       </c>
       <c r="L7">
-        <v>1.02043017243962</v>
+        <v>1.023415713278464</v>
       </c>
       <c r="M7">
-        <v>1.026108124752533</v>
+        <v>1.000222493118622</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9960274626937156</v>
+        <v>1.002708159512817</v>
       </c>
       <c r="D8">
-        <v>1.015382969422749</v>
+        <v>1.020388849574266</v>
       </c>
       <c r="E8">
-        <v>1.000584777797357</v>
+        <v>1.008660880423468</v>
       </c>
       <c r="F8">
-        <v>1.004517176967428</v>
+        <v>0.9805393044003591</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043345649019941</v>
+        <v>1.044674280859463</v>
       </c>
       <c r="J8">
-        <v>1.017751530753206</v>
+        <v>1.024238094425208</v>
       </c>
       <c r="K8">
-        <v>1.02635852352773</v>
+        <v>1.031299545658291</v>
       </c>
       <c r="L8">
-        <v>1.011756833718496</v>
+        <v>1.019724798814754</v>
       </c>
       <c r="M8">
-        <v>1.015636305922124</v>
+        <v>0.9919894993663587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9741441968215461</v>
+        <v>0.9915438140339053</v>
       </c>
       <c r="D9">
-        <v>0.9982177617339132</v>
+        <v>1.011950952058759</v>
       </c>
       <c r="E9">
-        <v>0.9816133887744896</v>
+        <v>0.9997621153448187</v>
       </c>
       <c r="F9">
-        <v>0.9821214466363314</v>
+        <v>0.9628525664556979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034465678082442</v>
+        <v>1.04064329150842</v>
       </c>
       <c r="J9">
-        <v>1.000644231832443</v>
+        <v>1.017398757006642</v>
       </c>
       <c r="K9">
-        <v>1.011339820843715</v>
+        <v>1.024853064103228</v>
       </c>
       <c r="L9">
-        <v>0.9950119904594404</v>
+        <v>1.012859053240928</v>
       </c>
       <c r="M9">
-        <v>0.9955114076763317</v>
+        <v>0.9765785298043657</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.958032090997037</v>
+        <v>0.9836707967801216</v>
       </c>
       <c r="D10">
-        <v>0.9856117745647055</v>
+        <v>1.006013049204841</v>
       </c>
       <c r="E10">
-        <v>0.9676587165531115</v>
+        <v>0.9935218535526706</v>
       </c>
       <c r="F10">
-        <v>0.9656805149534102</v>
+        <v>0.950268703011121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027847534298868</v>
+        <v>1.037737803173016</v>
       </c>
       <c r="J10">
-        <v>0.9880157676606056</v>
+        <v>1.012547605577345</v>
       </c>
       <c r="K10">
-        <v>1.00024576488052</v>
+        <v>1.020274578327581</v>
       </c>
       <c r="L10">
-        <v>0.9826375311742133</v>
+        <v>1.008009066383617</v>
       </c>
       <c r="M10">
-        <v>0.9806983552088914</v>
+        <v>0.9655979313213761</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506095908329918</v>
+        <v>0.9801473155375172</v>
       </c>
       <c r="D11">
-        <v>0.9798155282442661</v>
+        <v>1.003359353591736</v>
       </c>
       <c r="E11">
-        <v>0.9612357927435063</v>
+        <v>0.9907381330744858</v>
       </c>
       <c r="F11">
-        <v>0.9581188947899503</v>
+        <v>0.9446020224137945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024781068533034</v>
+        <v>1.036422988757359</v>
       </c>
       <c r="J11">
-        <v>0.9821918791060893</v>
+        <v>1.010369963838365</v>
       </c>
       <c r="K11">
-        <v>0.9951284040593089</v>
+        <v>1.018218194281771</v>
       </c>
       <c r="L11">
-        <v>0.9769277402970266</v>
+        <v>1.005836854152172</v>
       </c>
       <c r="M11">
-        <v>0.9738763407894314</v>
+        <v>0.9606501614859875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9477766520785069</v>
+        <v>0.9788201776061843</v>
       </c>
       <c r="D12">
-        <v>0.9776052845620574</v>
+        <v>1.002360458751254</v>
       </c>
       <c r="E12">
-        <v>0.9587854745569444</v>
+        <v>0.9896910521096992</v>
       </c>
       <c r="F12">
-        <v>0.9552347971997557</v>
+        <v>0.9424615643402912</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02360818912781</v>
+        <v>1.035925614921407</v>
       </c>
       <c r="J12">
-        <v>0.9799683083625381</v>
+        <v>1.009548763489068</v>
       </c>
       <c r="K12">
-        <v>0.9931744873382601</v>
+        <v>1.017442575391836</v>
       </c>
       <c r="L12">
-        <v>0.9747472967075498</v>
+        <v>1.005018456695822</v>
       </c>
       <c r="M12">
-        <v>0.9712729962327934</v>
+        <v>0.9587808649524997</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9483879234154001</v>
+        <v>0.979105704067848</v>
       </c>
       <c r="D13">
-        <v>0.9780820987746415</v>
+        <v>1.00257533571573</v>
       </c>
       <c r="E13">
-        <v>0.9593141319525759</v>
+        <v>0.9899162605524339</v>
       </c>
       <c r="F13">
-        <v>0.9558570184085572</v>
+        <v>0.9429223608093821</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023861374990247</v>
+        <v>1.036032718348963</v>
       </c>
       <c r="J13">
-        <v>0.9804481265131804</v>
+        <v>1.009725484445046</v>
       </c>
       <c r="K13">
-        <v>0.9935961209310231</v>
+        <v>1.017609493429066</v>
       </c>
       <c r="L13">
-        <v>0.9752178277898308</v>
+        <v>1.00519454004529</v>
       </c>
       <c r="M13">
-        <v>0.9718347072160479</v>
+        <v>0.959183302364401</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503770251241991</v>
+        <v>0.9800379956131335</v>
       </c>
       <c r="D14">
-        <v>0.9796340390327866</v>
+        <v>1.003277058644273</v>
       </c>
       <c r="E14">
-        <v>0.9610346135246296</v>
+        <v>0.9906518529312525</v>
       </c>
       <c r="F14">
-        <v>0.9578820895620649</v>
+        <v>0.9444258355786544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024684832545257</v>
+        <v>1.036382062034246</v>
       </c>
       <c r="J14">
-        <v>0.9820093531040347</v>
+        <v>1.010302339234462</v>
       </c>
       <c r="K14">
-        <v>0.9949680147197325</v>
+        <v>1.018154326040561</v>
       </c>
       <c r="L14">
-        <v>0.976748763130332</v>
+        <v>1.005769444912625</v>
       </c>
       <c r="M14">
-        <v>0.9736626143859975</v>
+        <v>0.9604963021786386</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9515922240644152</v>
+        <v>0.9806099413847291</v>
       </c>
       <c r="D15">
-        <v>0.9805824371477591</v>
+        <v>1.00370763994572</v>
       </c>
       <c r="E15">
-        <v>0.9620858589654672</v>
+        <v>0.9911033162587263</v>
       </c>
       <c r="F15">
-        <v>0.9591195198123358</v>
+        <v>0.9453473667194763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025187582917826</v>
+        <v>1.036596097616122</v>
       </c>
       <c r="J15">
-        <v>0.9829630550504896</v>
+        <v>1.01065610133869</v>
       </c>
       <c r="K15">
-        <v>0.99580604855278</v>
+        <v>1.018488431859432</v>
       </c>
       <c r="L15">
-        <v>0.9776839048486755</v>
+        <v>1.006122111250848</v>
       </c>
       <c r="M15">
-        <v>0.9747793916007735</v>
+        <v>0.9613010355236196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9585145820466858</v>
+        <v>0.9839021306505265</v>
       </c>
       <c r="D16">
-        <v>0.9859888073472917</v>
+        <v>1.006187361163983</v>
       </c>
       <c r="E16">
-        <v>0.9680763686997672</v>
+        <v>0.9937048117542169</v>
       </c>
       <c r="F16">
-        <v>0.966172309783187</v>
+        <v>0.9506399550461184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028046515836115</v>
+        <v>1.037823828841702</v>
       </c>
       <c r="J16">
-        <v>0.9883942278819475</v>
+        <v>1.01269044257877</v>
       </c>
       <c r="K16">
-        <v>1.000578294734719</v>
+        <v>1.020409440191744</v>
       </c>
       <c r="L16">
-        <v>0.9830085160712309</v>
+        <v>1.00815165063267</v>
       </c>
       <c r="M16">
-        <v>0.9811418623178242</v>
+        <v>0.9659220261801774</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627316499335886</v>
+        <v>0.9859358100572384</v>
       </c>
       <c r="D17">
-        <v>0.9892854197448664</v>
+        <v>1.007720188823664</v>
       </c>
       <c r="E17">
-        <v>0.9717273935622581</v>
+        <v>0.9953142493789899</v>
       </c>
       <c r="F17">
-        <v>0.9704720844245548</v>
+        <v>0.9538996165394297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029783699142686</v>
+        <v>1.038578448041804</v>
       </c>
       <c r="J17">
-        <v>0.99170136623825</v>
+        <v>1.01394539312409</v>
       </c>
       <c r="K17">
-        <v>1.003483959220854</v>
+        <v>1.021594195798828</v>
       </c>
       <c r="L17">
-        <v>0.9862499942072263</v>
+        <v>1.00940493863667</v>
       </c>
       <c r="M17">
-        <v>0.9850184409995529</v>
+        <v>0.9687673002132452</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651490587008074</v>
+        <v>0.9871110664112076</v>
       </c>
       <c r="D18">
-        <v>0.9911761863857216</v>
+        <v>1.008606354298689</v>
       </c>
       <c r="E18">
-        <v>0.9738208320820007</v>
+        <v>0.9962451885765308</v>
       </c>
       <c r="F18">
-        <v>0.9729380474527028</v>
+        <v>0.9557801201902568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030777880537104</v>
+        <v>1.039013166331123</v>
       </c>
       <c r="J18">
-        <v>0.9935965730486279</v>
+        <v>1.01467000365339</v>
       </c>
       <c r="K18">
-        <v>1.005148988680913</v>
+        <v>1.022278166266321</v>
       </c>
       <c r="L18">
-        <v>0.9881072892534148</v>
+        <v>1.010129051251208</v>
       </c>
       <c r="M18">
-        <v>0.987240848753581</v>
+        <v>0.9704084497807761</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9659663955200488</v>
+        <v>0.9875099741604321</v>
       </c>
       <c r="D19">
-        <v>0.9918156241855581</v>
+        <v>1.008907195525626</v>
       </c>
       <c r="E19">
-        <v>0.9745287128695304</v>
+        <v>0.9965613121836199</v>
       </c>
       <c r="F19">
-        <v>0.9737719923915544</v>
+        <v>0.9564178771749056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031113734254569</v>
+        <v>1.039160485186476</v>
       </c>
       <c r="J19">
-        <v>0.9942372465633196</v>
+        <v>1.01491584676716</v>
       </c>
       <c r="K19">
-        <v>1.005711831044179</v>
+        <v>1.022510201883563</v>
       </c>
       <c r="L19">
-        <v>0.9887350979759311</v>
+        <v>1.010374803303246</v>
       </c>
       <c r="M19">
-        <v>0.9879922830912109</v>
+        <v>0.9709649801530211</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9622836364361155</v>
+        <v>0.9857187566801188</v>
       </c>
       <c r="D20">
-        <v>0.988935087026322</v>
+        <v>1.007556554266035</v>
       </c>
       <c r="E20">
-        <v>0.9713394606089915</v>
+        <v>0.9951423863184784</v>
       </c>
       <c r="F20">
-        <v>0.9700151647521917</v>
+        <v>0.9535520570973615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029599314706407</v>
+        <v>1.038498050318011</v>
       </c>
       <c r="J20">
-        <v>0.991350082387177</v>
+        <v>1.013811517430164</v>
       </c>
       <c r="K20">
-        <v>1.003175330543127</v>
+        <v>1.021467819546899</v>
       </c>
       <c r="L20">
-        <v>0.9859057142359176</v>
+        <v>1.009271192199211</v>
       </c>
       <c r="M20">
-        <v>0.984606580800428</v>
+        <v>0.968463954586532</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9497934594908868</v>
+        <v>0.9797639757877968</v>
       </c>
       <c r="D21">
-        <v>0.9791786705475785</v>
+        <v>1.003070789705</v>
       </c>
       <c r="E21">
-        <v>0.9605298232767825</v>
+        <v>0.9904356074255035</v>
       </c>
       <c r="F21">
-        <v>0.9572879173193222</v>
+        <v>0.9439841073079129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024443312692477</v>
+        <v>1.036279441307138</v>
       </c>
       <c r="J21">
-        <v>0.9815513378411632</v>
+        <v>1.010132816566034</v>
       </c>
       <c r="K21">
-        <v>0.9945655459621783</v>
+        <v>1.017994217644581</v>
       </c>
       <c r="L21">
-        <v>0.9762996461100671</v>
+        <v>1.005600474347819</v>
       </c>
       <c r="M21">
-        <v>0.9731263281977676</v>
+        <v>0.9601105465213648</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9414955211223104</v>
+        <v>0.975913077708777</v>
       </c>
       <c r="D22">
-        <v>0.9727089251302206</v>
+        <v>1.000173623868083</v>
       </c>
       <c r="E22">
-        <v>0.9533550740059233</v>
+        <v>0.9874001092500883</v>
       </c>
       <c r="F22">
-        <v>0.948843930385299</v>
+        <v>0.9377607003010541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021003250490162</v>
+        <v>1.034832212725837</v>
       </c>
       <c r="J22">
-        <v>0.9750370324955262</v>
+        <v>1.007748121648344</v>
       </c>
       <c r="K22">
-        <v>0.9888411281695899</v>
+        <v>1.015741642020253</v>
       </c>
       <c r="L22">
-        <v>0.9699108879822607</v>
+        <v>1.003225374089529</v>
       </c>
       <c r="M22">
-        <v>0.9655017988069782</v>
+        <v>0.9546748889587912</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9459400396562655</v>
+        <v>0.977965064936888</v>
       </c>
       <c r="D23">
-        <v>0.9761729825802206</v>
+        <v>1.001717030150092</v>
       </c>
       <c r="E23">
-        <v>0.957197267976073</v>
+        <v>0.9890167971804301</v>
       </c>
       <c r="F23">
-        <v>0.9533655762757759</v>
+        <v>0.9410805825892125</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022847117747553</v>
+        <v>1.035604543648412</v>
       </c>
       <c r="J23">
-        <v>0.9785265582504585</v>
+        <v>1.009019365089307</v>
       </c>
       <c r="K23">
-        <v>0.991907560281869</v>
+        <v>1.016942524107938</v>
       </c>
       <c r="L23">
-        <v>0.9733333903805255</v>
+        <v>1.004491080600932</v>
       </c>
       <c r="M23">
-        <v>0.9695853602272874</v>
+        <v>0.957574730660514</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9624862046302997</v>
+        <v>0.9858168675246105</v>
       </c>
       <c r="D24">
-        <v>0.989093485998554</v>
+        <v>1.007630518055836</v>
       </c>
       <c r="E24">
-        <v>0.9715148619625382</v>
+        <v>0.995220067939558</v>
       </c>
       <c r="F24">
-        <v>0.9702217562988265</v>
+        <v>0.953709168319019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02968268881462</v>
+        <v>1.038534395359942</v>
       </c>
       <c r="J24">
-        <v>0.9915089163601376</v>
+        <v>1.013872032847609</v>
       </c>
       <c r="K24">
-        <v>1.003314878196814</v>
+        <v>1.021524945356091</v>
       </c>
       <c r="L24">
-        <v>0.9860613822711239</v>
+        <v>1.009331647756659</v>
       </c>
       <c r="M24">
-        <v>0.9847928018096876</v>
+        <v>0.968601080253449</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9800451772968415</v>
+        <v>0.9945019988338279</v>
       </c>
       <c r="D25">
-        <v>1.002842008190449</v>
+        <v>1.014184831429797</v>
       </c>
       <c r="E25">
-        <v>0.9867275882054267</v>
+        <v>1.002114196584016</v>
       </c>
       <c r="F25">
-        <v>0.9881527139505455</v>
+        <v>0.9675555406485167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036874063148777</v>
+        <v>1.041722298813829</v>
       </c>
       <c r="J25">
-        <v>1.005263281896103</v>
+        <v>1.019215819975509</v>
       </c>
       <c r="K25">
-        <v>1.01539636526607</v>
+        <v>1.026566865758172</v>
       </c>
       <c r="L25">
-        <v>0.9995354958227618</v>
+        <v>1.014679780791881</v>
       </c>
       <c r="M25">
-        <v>1.000937770711707</v>
+        <v>0.980679300364268</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001123059880896</v>
+        <v>1.028185895818088</v>
       </c>
       <c r="D2">
-        <v>1.019189721827635</v>
+        <v>1.033314673539573</v>
       </c>
       <c r="E2">
-        <v>1.007393766300545</v>
+        <v>1.028181577463523</v>
       </c>
       <c r="F2">
-        <v>0.9780379752935824</v>
+        <v>1.026732192368816</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044109121426104</v>
+        <v>1.035243628196483</v>
       </c>
       <c r="J2">
-        <v>1.023270232229561</v>
+        <v>1.03333961427441</v>
       </c>
       <c r="K2">
-        <v>1.030388033280699</v>
+        <v>1.036117378245251</v>
       </c>
       <c r="L2">
-        <v>1.018751046378941</v>
+        <v>1.030999140757189</v>
       </c>
       <c r="M2">
-        <v>0.9898119992301448</v>
+        <v>1.029553980392997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005769399294642</v>
+        <v>1.029130216393325</v>
       </c>
       <c r="D3">
-        <v>1.022705615598601</v>
+        <v>1.034040460955386</v>
       </c>
       <c r="E3">
-        <v>1.011111567319998</v>
+        <v>1.028983265508087</v>
       </c>
       <c r="F3">
-        <v>0.9853619451515288</v>
+        <v>1.028309723001516</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045758350049049</v>
+        <v>1.035506269172334</v>
       </c>
       <c r="J3">
-        <v>1.026104010832152</v>
+        <v>1.033924463486449</v>
       </c>
       <c r="K3">
-        <v>1.033055988272741</v>
+        <v>1.036652342380609</v>
       </c>
       <c r="L3">
-        <v>1.021604220618257</v>
+        <v>1.031608727094165</v>
       </c>
       <c r="M3">
-        <v>0.9961856134592899</v>
+        <v>1.030937004167044</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008706200884794</v>
+        <v>1.029741101974341</v>
       </c>
       <c r="D4">
-        <v>1.024929283317765</v>
+        <v>1.034509842357399</v>
       </c>
       <c r="E4">
-        <v>1.013467130436127</v>
+        <v>1.029502257531264</v>
       </c>
       <c r="F4">
-        <v>0.9899792885806417</v>
+        <v>1.029330308996242</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046788665854408</v>
+        <v>1.035674727158373</v>
       </c>
       <c r="J4">
-        <v>1.027889792952828</v>
+        <v>1.034302147432107</v>
       </c>
       <c r="K4">
-        <v>1.0347358633993</v>
+        <v>1.036997581361546</v>
       </c>
       <c r="L4">
-        <v>1.023405691428205</v>
+        <v>1.032002766181187</v>
       </c>
       <c r="M4">
-        <v>1.00020017850981</v>
+        <v>1.031831258504808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009924819176194</v>
+        <v>1.029997881914666</v>
       </c>
       <c r="D5">
-        <v>1.025852273731302</v>
+        <v>1.034707109708846</v>
       </c>
       <c r="E5">
-        <v>1.014445883442687</v>
+        <v>1.029720500419358</v>
       </c>
       <c r="F5">
-        <v>0.991892787303047</v>
+        <v>1.029759325292152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047213255832718</v>
+        <v>1.035745190567728</v>
       </c>
       <c r="J5">
-        <v>1.028629500025874</v>
+        <v>1.034460745724082</v>
       </c>
       <c r="K5">
-        <v>1.035431347219204</v>
+        <v>1.037142499865464</v>
       </c>
       <c r="L5">
-        <v>1.024152721857025</v>
+        <v>1.032168323436851</v>
       </c>
       <c r="M5">
-        <v>1.001862969775331</v>
+        <v>1.032207051008634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010128510270331</v>
+        <v>1.030040994272116</v>
       </c>
       <c r="D6">
-        <v>1.026006566285287</v>
+        <v>1.034740228201565</v>
       </c>
       <c r="E6">
-        <v>1.014609557605028</v>
+        <v>1.029757147790179</v>
       </c>
       <c r="F6">
-        <v>0.9922124937870811</v>
+        <v>1.029831356943115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047284052117494</v>
+        <v>1.035757000788077</v>
       </c>
       <c r="J6">
-        <v>1.028753064738644</v>
+        <v>1.034487364521462</v>
       </c>
       <c r="K6">
-        <v>1.035547503325647</v>
+        <v>1.037166819419551</v>
       </c>
       <c r="L6">
-        <v>1.024277558225525</v>
+        <v>1.032196115551998</v>
       </c>
       <c r="M6">
-        <v>1.002140733885042</v>
+        <v>1.032270139444749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008722546184857</v>
+        <v>1.02974453322301</v>
       </c>
       <c r="D7">
-        <v>1.024941662301341</v>
+        <v>1.03451247849195</v>
       </c>
       <c r="E7">
-        <v>1.013480253270022</v>
+        <v>1.029505173473401</v>
       </c>
       <c r="F7">
-        <v>0.9900049634985106</v>
+        <v>1.029336041675722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046794372520995</v>
+        <v>1.035675670094066</v>
       </c>
       <c r="J7">
-        <v>1.027899719778232</v>
+        <v>1.03430426733752</v>
       </c>
       <c r="K7">
-        <v>1.034745198174585</v>
+        <v>1.036999518634075</v>
       </c>
       <c r="L7">
-        <v>1.023415713278464</v>
+        <v>1.032004978745682</v>
       </c>
       <c r="M7">
-        <v>1.000222493118622</v>
+        <v>1.031836280454168</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002708159512817</v>
+        <v>1.028505065213616</v>
       </c>
       <c r="D8">
-        <v>1.020388849574266</v>
+        <v>1.033560008674356</v>
       </c>
       <c r="E8">
-        <v>1.008660880423468</v>
+        <v>1.028452460518837</v>
       </c>
       <c r="F8">
-        <v>0.9805393044003591</v>
+        <v>1.027265367172565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044674280859463</v>
+        <v>1.035332697087423</v>
       </c>
       <c r="J8">
-        <v>1.024238094425208</v>
+        <v>1.033537422718714</v>
       </c>
       <c r="K8">
-        <v>1.031299545658291</v>
+        <v>1.036298362049545</v>
       </c>
       <c r="L8">
-        <v>1.019724798814754</v>
+        <v>1.031205236943965</v>
       </c>
       <c r="M8">
-        <v>0.9919894993663587</v>
+        <v>1.030021518092769</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9915438140339053</v>
+        <v>1.026319779978969</v>
       </c>
       <c r="D9">
-        <v>1.011950952058759</v>
+        <v>1.031879723389283</v>
       </c>
       <c r="E9">
-        <v>0.9997621153448187</v>
+        <v>1.026599344785221</v>
       </c>
       <c r="F9">
-        <v>0.9628525664556979</v>
+        <v>1.0236149366482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04064329150842</v>
+        <v>1.034716937151585</v>
       </c>
       <c r="J9">
-        <v>1.017398757006642</v>
+        <v>1.032180373729709</v>
       </c>
       <c r="K9">
-        <v>1.024853064103228</v>
+        <v>1.035055800882851</v>
       </c>
       <c r="L9">
-        <v>1.012859053240928</v>
+        <v>1.029792896781966</v>
       </c>
       <c r="M9">
-        <v>0.9765785298043657</v>
+        <v>1.026818452567219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9836707967801216</v>
+        <v>1.024862106045968</v>
       </c>
       <c r="D10">
-        <v>1.006013049204841</v>
+        <v>1.030758265516502</v>
       </c>
       <c r="E10">
-        <v>0.9935218535526706</v>
+        <v>1.025365225911733</v>
       </c>
       <c r="F10">
-        <v>0.950268703011121</v>
+        <v>1.021179871528655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037737803173016</v>
+        <v>1.034298766789389</v>
       </c>
       <c r="J10">
-        <v>1.012547605577345</v>
+        <v>1.031271782480322</v>
       </c>
       <c r="K10">
-        <v>1.020274578327581</v>
+        <v>1.034222697327133</v>
       </c>
       <c r="L10">
-        <v>1.008009066383617</v>
+        <v>1.02884925661699</v>
       </c>
       <c r="M10">
-        <v>0.9655979313213761</v>
+        <v>1.024679269998502</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801473155375172</v>
+        <v>1.024230717670703</v>
       </c>
       <c r="D11">
-        <v>1.003359353591736</v>
+        <v>1.030272364074313</v>
       </c>
       <c r="E11">
-        <v>0.9907381330744858</v>
+        <v>1.024831147435686</v>
       </c>
       <c r="F11">
-        <v>0.9446020224137945</v>
+        <v>1.02012504188586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036422988757359</v>
+        <v>1.034115875981357</v>
       </c>
       <c r="J11">
-        <v>1.010369963838365</v>
+        <v>1.030877425873769</v>
       </c>
       <c r="K11">
-        <v>1.018218194281771</v>
+        <v>1.033860831616493</v>
       </c>
       <c r="L11">
-        <v>1.005836854152172</v>
+        <v>1.028440155700229</v>
       </c>
       <c r="M11">
-        <v>0.9606501614859875</v>
+        <v>1.023752011775771</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9788201776061843</v>
+        <v>1.023996160373102</v>
       </c>
       <c r="D12">
-        <v>1.002360458751254</v>
+        <v>1.030091833289079</v>
       </c>
       <c r="E12">
-        <v>0.9896910521096992</v>
+        <v>1.024632812542575</v>
       </c>
       <c r="F12">
-        <v>0.9424615643402912</v>
+        <v>1.019733159843322</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035925614921407</v>
+        <v>1.034047668579912</v>
       </c>
       <c r="J12">
-        <v>1.009548763489068</v>
+        <v>1.030730804068822</v>
       </c>
       <c r="K12">
-        <v>1.017442575391836</v>
+        <v>1.033726249178814</v>
       </c>
       <c r="L12">
-        <v>1.005018456695822</v>
+        <v>1.028288122337454</v>
       </c>
       <c r="M12">
-        <v>0.9587808649524997</v>
+        <v>1.023407434091709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.979105704067848</v>
+        <v>1.024046475146766</v>
       </c>
       <c r="D13">
-        <v>1.00257533571573</v>
+        <v>1.030130559805678</v>
       </c>
       <c r="E13">
-        <v>0.9899162605524339</v>
+        <v>1.024675353984096</v>
       </c>
       <c r="F13">
-        <v>0.9429223608093821</v>
+        <v>1.01981722320801</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036032718348963</v>
+        <v>1.034062311682797</v>
       </c>
       <c r="J13">
-        <v>1.009725484445046</v>
+        <v>1.030762261294511</v>
       </c>
       <c r="K13">
-        <v>1.017609493429066</v>
+        <v>1.033755125237186</v>
       </c>
       <c r="L13">
-        <v>1.00519454004529</v>
+        <v>1.028320737409665</v>
       </c>
       <c r="M13">
-        <v>0.959183302364401</v>
+        <v>1.023481354176991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9800379956131335</v>
+        <v>1.024211329738275</v>
       </c>
       <c r="D14">
-        <v>1.003277058644273</v>
+        <v>1.030257442267768</v>
       </c>
       <c r="E14">
-        <v>0.9906518529312525</v>
+        <v>1.024814752080172</v>
       </c>
       <c r="F14">
-        <v>0.9444258355786544</v>
+        <v>1.020092650288217</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036382062034246</v>
+        <v>1.034110243518676</v>
       </c>
       <c r="J14">
-        <v>1.010302339234462</v>
+        <v>1.030865308932007</v>
       </c>
       <c r="K14">
-        <v>1.018154326040561</v>
+        <v>1.033849710446977</v>
       </c>
       <c r="L14">
-        <v>1.005769444912625</v>
+        <v>1.02842759010741</v>
       </c>
       <c r="M14">
-        <v>0.9604963021786386</v>
+        <v>1.023723532025188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9806099413847291</v>
+        <v>1.024312897895187</v>
       </c>
       <c r="D15">
-        <v>1.00370763994572</v>
+        <v>1.030335612734222</v>
       </c>
       <c r="E15">
-        <v>0.9911033162587263</v>
+        <v>1.02490064589718</v>
       </c>
       <c r="F15">
-        <v>0.9453473667194763</v>
+        <v>1.020262340347861</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036596097616122</v>
+        <v>1.034139739644337</v>
       </c>
       <c r="J15">
-        <v>1.01065610133869</v>
+        <v>1.030928781392465</v>
       </c>
       <c r="K15">
-        <v>1.018488431859432</v>
+        <v>1.033907965063816</v>
       </c>
       <c r="L15">
-        <v>1.006122111250848</v>
+        <v>1.028493415628646</v>
       </c>
       <c r="M15">
-        <v>0.9613010355236196</v>
+        <v>1.023872725384397</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9839021306505265</v>
+        <v>1.024904004822817</v>
       </c>
       <c r="D16">
-        <v>1.006187361163983</v>
+        <v>1.030790506827391</v>
       </c>
       <c r="E16">
-        <v>0.9937048117542169</v>
+        <v>1.025400677335895</v>
       </c>
       <c r="F16">
-        <v>0.9506399550461184</v>
+        <v>1.021249867460341</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037823828841702</v>
+        <v>1.034310866287269</v>
       </c>
       <c r="J16">
-        <v>1.01269044257877</v>
+        <v>1.031297934989692</v>
       </c>
       <c r="K16">
-        <v>1.020409440191744</v>
+        <v>1.034246689416344</v>
       </c>
       <c r="L16">
-        <v>1.00815165063267</v>
+        <v>1.028876396780086</v>
       </c>
       <c r="M16">
-        <v>0.9659220261801774</v>
+        <v>1.024740787975994</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9859358100572384</v>
+        <v>1.025274735022631</v>
       </c>
       <c r="D17">
-        <v>1.007720188823664</v>
+        <v>1.031075768908843</v>
       </c>
       <c r="E17">
-        <v>0.9953142493789899</v>
+        <v>1.025714415072168</v>
       </c>
       <c r="F17">
-        <v>0.9538996165394297</v>
+        <v>1.021869197193426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038578448041804</v>
+        <v>1.034417722073953</v>
       </c>
       <c r="J17">
-        <v>1.01394539312409</v>
+        <v>1.031529245867326</v>
       </c>
       <c r="K17">
-        <v>1.021594195798828</v>
+        <v>1.034458860570038</v>
       </c>
       <c r="L17">
-        <v>1.00940493863667</v>
+        <v>1.029116497156256</v>
       </c>
       <c r="M17">
-        <v>0.9687673002132452</v>
+        <v>1.025285034801428</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871110664112076</v>
+        <v>1.025490955846198</v>
       </c>
       <c r="D18">
-        <v>1.008606354298689</v>
+        <v>1.031242128232066</v>
       </c>
       <c r="E18">
-        <v>0.9962451885765308</v>
+        <v>1.025897442228872</v>
       </c>
       <c r="F18">
-        <v>0.9557801201902568</v>
+        <v>1.022230400673473</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039013166331123</v>
+        <v>1.034479873624972</v>
       </c>
       <c r="J18">
-        <v>1.01467000365339</v>
+        <v>1.031664075826003</v>
       </c>
       <c r="K18">
-        <v>1.022278166266321</v>
+        <v>1.034582507747849</v>
       </c>
       <c r="L18">
-        <v>1.010129051251208</v>
+        <v>1.0292564955577</v>
       </c>
       <c r="M18">
-        <v>0.9704084497807761</v>
+        <v>1.0256023907859</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9875099741604321</v>
+        <v>1.025564678214113</v>
       </c>
       <c r="D19">
-        <v>1.008907195525626</v>
+        <v>1.031298847501257</v>
       </c>
       <c r="E19">
-        <v>0.9965613121836199</v>
+        <v>1.025959854716748</v>
       </c>
       <c r="F19">
-        <v>0.9564178771749056</v>
+        <v>1.022353554961806</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039160485186476</v>
+        <v>1.034501035913339</v>
       </c>
       <c r="J19">
-        <v>1.01491584676716</v>
+        <v>1.031710034144033</v>
       </c>
       <c r="K19">
-        <v>1.022510201883563</v>
+        <v>1.034624649813668</v>
       </c>
       <c r="L19">
-        <v>1.010374803303246</v>
+        <v>1.029304223243681</v>
       </c>
       <c r="M19">
-        <v>0.9709649801530211</v>
+        <v>1.025710585209229</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9857187566801188</v>
+        <v>1.02523496123599</v>
       </c>
       <c r="D20">
-        <v>1.007556554266035</v>
+        <v>1.031045166008724</v>
       </c>
       <c r="E20">
-        <v>0.9951423863184784</v>
+        <v>1.025680750956715</v>
       </c>
       <c r="F20">
-        <v>0.9535520570973615</v>
+        <v>1.021802753270503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038498050318011</v>
+        <v>1.034406275625563</v>
       </c>
       <c r="J20">
-        <v>1.013811517430164</v>
+        <v>1.031504437686521</v>
       </c>
       <c r="K20">
-        <v>1.021467819546899</v>
+        <v>1.03443610785424</v>
       </c>
       <c r="L20">
-        <v>1.009271192199211</v>
+        <v>1.029090741633043</v>
       </c>
       <c r="M20">
-        <v>0.968463954586532</v>
+        <v>1.025226652029547</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9797639757877968</v>
+        <v>1.024162785045563</v>
       </c>
       <c r="D21">
-        <v>1.003070789705</v>
+        <v>1.030220079796126</v>
       </c>
       <c r="E21">
-        <v>0.9904356074255035</v>
+        <v>1.024773701554925</v>
       </c>
       <c r="F21">
-        <v>0.9439841073079129</v>
+        <v>1.020011545901315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036279441307138</v>
+        <v>1.03409613634182</v>
       </c>
       <c r="J21">
-        <v>1.010132816566034</v>
+        <v>1.030834967844609</v>
       </c>
       <c r="K21">
-        <v>1.017994217644581</v>
+        <v>1.033821862137905</v>
       </c>
       <c r="L21">
-        <v>1.005600474347819</v>
+        <v>1.028396126724806</v>
       </c>
       <c r="M21">
-        <v>0.9601105465213648</v>
+        <v>1.023652220946443</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.975913077708777</v>
+        <v>1.023488482521965</v>
       </c>
       <c r="D22">
-        <v>1.000173623868083</v>
+        <v>1.029701052997207</v>
       </c>
       <c r="E22">
-        <v>0.9874001092500883</v>
+        <v>1.024203667649822</v>
       </c>
       <c r="F22">
-        <v>0.9377607003010541</v>
+        <v>1.018884926611479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034832212725837</v>
+        <v>1.03389955635958</v>
       </c>
       <c r="J22">
-        <v>1.007748121648344</v>
+        <v>1.030413234216387</v>
       </c>
       <c r="K22">
-        <v>1.015741642020253</v>
+        <v>1.033434681284172</v>
       </c>
       <c r="L22">
-        <v>1.003225374089529</v>
+        <v>1.027958960356571</v>
       </c>
       <c r="M22">
-        <v>0.9546748889587912</v>
+        <v>1.022661427328571</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.977965064936888</v>
+        <v>1.023845960578084</v>
       </c>
       <c r="D23">
-        <v>1.001717030150092</v>
+        <v>1.029976223748947</v>
       </c>
       <c r="E23">
-        <v>0.9890167971804301</v>
+        <v>1.024505828351661</v>
       </c>
       <c r="F23">
-        <v>0.9410805825892125</v>
+        <v>1.019482210498729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035604543648412</v>
+        <v>1.034003917233916</v>
       </c>
       <c r="J23">
-        <v>1.009019365089307</v>
+        <v>1.030636880232874</v>
       </c>
       <c r="K23">
-        <v>1.016942524107938</v>
+        <v>1.033640026152118</v>
       </c>
       <c r="L23">
-        <v>1.004491080600932</v>
+        <v>1.02819075175648</v>
       </c>
       <c r="M23">
-        <v>0.957574730660514</v>
+        <v>1.02318675171167</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9858168675246105</v>
+        <v>1.02525293335914</v>
       </c>
       <c r="D24">
-        <v>1.007630518055836</v>
+        <v>1.031058994232184</v>
       </c>
       <c r="E24">
-        <v>0.995220067939558</v>
+        <v>1.02569596223096</v>
       </c>
       <c r="F24">
-        <v>0.953709168319019</v>
+        <v>1.021832776544583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038534395359942</v>
+        <v>1.034411448325417</v>
       </c>
       <c r="J24">
-        <v>1.013872032847609</v>
+        <v>1.031515647712729</v>
       </c>
       <c r="K24">
-        <v>1.021524945356091</v>
+        <v>1.034446389162739</v>
       </c>
       <c r="L24">
-        <v>1.009331647756659</v>
+        <v>1.029102379593777</v>
       </c>
       <c r="M24">
-        <v>0.968601080253449</v>
+        <v>1.025253032980122</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9945019988338279</v>
+        <v>1.026884871056712</v>
       </c>
       <c r="D25">
-        <v>1.014184831429797</v>
+        <v>1.032314342108265</v>
       </c>
       <c r="E25">
-        <v>1.002114196584016</v>
+        <v>1.027078193018232</v>
       </c>
       <c r="F25">
-        <v>0.9675555406485167</v>
+        <v>1.024558889811961</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041722298813829</v>
+        <v>1.034877476583387</v>
       </c>
       <c r="J25">
-        <v>1.019215819975509</v>
+        <v>1.032531888495359</v>
       </c>
       <c r="K25">
-        <v>1.026566865758172</v>
+        <v>1.035377866268381</v>
       </c>
       <c r="L25">
-        <v>1.014679780791881</v>
+        <v>1.030158387123597</v>
       </c>
       <c r="M25">
-        <v>0.980679300364268</v>
+        <v>1.027647170896794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028185895818088</v>
+        <v>1.001123059880897</v>
       </c>
       <c r="D2">
-        <v>1.033314673539573</v>
+        <v>1.019189721827635</v>
       </c>
       <c r="E2">
-        <v>1.028181577463523</v>
+        <v>1.007393766300544</v>
       </c>
       <c r="F2">
-        <v>1.026732192368816</v>
+        <v>0.9780379752935824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035243628196483</v>
+        <v>1.044109121426104</v>
       </c>
       <c r="J2">
-        <v>1.03333961427441</v>
+        <v>1.023270232229561</v>
       </c>
       <c r="K2">
-        <v>1.036117378245251</v>
+        <v>1.030388033280699</v>
       </c>
       <c r="L2">
-        <v>1.030999140757189</v>
+        <v>1.018751046378941</v>
       </c>
       <c r="M2">
-        <v>1.029553980392997</v>
+        <v>0.9898119992301445</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029130216393325</v>
+        <v>1.005769399294641</v>
       </c>
       <c r="D3">
-        <v>1.034040460955386</v>
+        <v>1.0227056155986</v>
       </c>
       <c r="E3">
-        <v>1.028983265508087</v>
+        <v>1.011111567319997</v>
       </c>
       <c r="F3">
-        <v>1.028309723001516</v>
+        <v>0.9853619451515278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035506269172334</v>
+        <v>1.045758350049049</v>
       </c>
       <c r="J3">
-        <v>1.033924463486449</v>
+        <v>1.026104010832151</v>
       </c>
       <c r="K3">
-        <v>1.036652342380609</v>
+        <v>1.03305598827274</v>
       </c>
       <c r="L3">
-        <v>1.031608727094165</v>
+        <v>1.021604220618256</v>
       </c>
       <c r="M3">
-        <v>1.030937004167044</v>
+        <v>0.996185613459289</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029741101974341</v>
+        <v>1.008706200884794</v>
       </c>
       <c r="D4">
-        <v>1.034509842357399</v>
+        <v>1.024929283317764</v>
       </c>
       <c r="E4">
-        <v>1.029502257531264</v>
+        <v>1.013467130436126</v>
       </c>
       <c r="F4">
-        <v>1.029330308996242</v>
+        <v>0.9899792885806408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035674727158373</v>
+        <v>1.046788665854407</v>
       </c>
       <c r="J4">
-        <v>1.034302147432107</v>
+        <v>1.027889792952828</v>
       </c>
       <c r="K4">
-        <v>1.036997581361546</v>
+        <v>1.034735863399299</v>
       </c>
       <c r="L4">
-        <v>1.032002766181187</v>
+        <v>1.023405691428204</v>
       </c>
       <c r="M4">
-        <v>1.031831258504808</v>
+        <v>1.000200178509808</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029997881914666</v>
+        <v>1.009924819176195</v>
       </c>
       <c r="D5">
-        <v>1.034707109708846</v>
+        <v>1.025852273731302</v>
       </c>
       <c r="E5">
-        <v>1.029720500419358</v>
+        <v>1.014445883442687</v>
       </c>
       <c r="F5">
-        <v>1.029759325292152</v>
+        <v>0.9918927873030479</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035745190567728</v>
+        <v>1.047213255832718</v>
       </c>
       <c r="J5">
-        <v>1.034460745724082</v>
+        <v>1.028629500025875</v>
       </c>
       <c r="K5">
-        <v>1.037142499865464</v>
+        <v>1.035431347219205</v>
       </c>
       <c r="L5">
-        <v>1.032168323436851</v>
+        <v>1.024152721857025</v>
       </c>
       <c r="M5">
-        <v>1.032207051008634</v>
+        <v>1.001862969775331</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030040994272116</v>
+        <v>1.010128510270331</v>
       </c>
       <c r="D6">
-        <v>1.034740228201565</v>
+        <v>1.026006566285287</v>
       </c>
       <c r="E6">
-        <v>1.029757147790179</v>
+        <v>1.014609557605028</v>
       </c>
       <c r="F6">
-        <v>1.029831356943115</v>
+        <v>0.9922124937870804</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035757000788077</v>
+        <v>1.047284052117493</v>
       </c>
       <c r="J6">
-        <v>1.034487364521462</v>
+        <v>1.028753064738644</v>
       </c>
       <c r="K6">
-        <v>1.037166819419551</v>
+        <v>1.035547503325647</v>
       </c>
       <c r="L6">
-        <v>1.032196115551998</v>
+        <v>1.024277558225525</v>
       </c>
       <c r="M6">
-        <v>1.032270139444749</v>
+        <v>1.002140733885041</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02974453322301</v>
+        <v>1.008722546184856</v>
       </c>
       <c r="D7">
-        <v>1.03451247849195</v>
+        <v>1.02494166230134</v>
       </c>
       <c r="E7">
-        <v>1.029505173473401</v>
+        <v>1.013480253270021</v>
       </c>
       <c r="F7">
-        <v>1.029336041675722</v>
+        <v>0.9900049634985096</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035675670094066</v>
+        <v>1.046794372520995</v>
       </c>
       <c r="J7">
-        <v>1.03430426733752</v>
+        <v>1.027899719778231</v>
       </c>
       <c r="K7">
-        <v>1.036999518634075</v>
+        <v>1.034745198174584</v>
       </c>
       <c r="L7">
-        <v>1.032004978745682</v>
+        <v>1.023415713278463</v>
       </c>
       <c r="M7">
-        <v>1.031836280454168</v>
+        <v>1.000222493118621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028505065213616</v>
+        <v>1.002708159512817</v>
       </c>
       <c r="D8">
-        <v>1.033560008674356</v>
+        <v>1.020388849574266</v>
       </c>
       <c r="E8">
-        <v>1.028452460518837</v>
+        <v>1.008660880423468</v>
       </c>
       <c r="F8">
-        <v>1.027265367172565</v>
+        <v>0.9805393044003587</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035332697087423</v>
+        <v>1.044674280859463</v>
       </c>
       <c r="J8">
-        <v>1.033537422718714</v>
+        <v>1.024238094425208</v>
       </c>
       <c r="K8">
-        <v>1.036298362049545</v>
+        <v>1.031299545658291</v>
       </c>
       <c r="L8">
-        <v>1.031205236943965</v>
+        <v>1.019724798814754</v>
       </c>
       <c r="M8">
-        <v>1.030021518092769</v>
+        <v>0.9919894993663585</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026319779978969</v>
+        <v>0.991543814033905</v>
       </c>
       <c r="D9">
-        <v>1.031879723389283</v>
+        <v>1.011950952058759</v>
       </c>
       <c r="E9">
-        <v>1.026599344785221</v>
+        <v>0.9997621153448185</v>
       </c>
       <c r="F9">
-        <v>1.0236149366482</v>
+        <v>0.9628525664556983</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034716937151585</v>
+        <v>1.04064329150842</v>
       </c>
       <c r="J9">
-        <v>1.032180373729709</v>
+        <v>1.017398757006641</v>
       </c>
       <c r="K9">
-        <v>1.035055800882851</v>
+        <v>1.024853064103228</v>
       </c>
       <c r="L9">
-        <v>1.029792896781966</v>
+        <v>1.012859053240928</v>
       </c>
       <c r="M9">
-        <v>1.026818452567219</v>
+        <v>0.9765785298043661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024862106045968</v>
+        <v>0.9836707967801217</v>
       </c>
       <c r="D10">
-        <v>1.030758265516502</v>
+        <v>1.006013049204841</v>
       </c>
       <c r="E10">
-        <v>1.025365225911733</v>
+        <v>0.9935218535526704</v>
       </c>
       <c r="F10">
-        <v>1.021179871528655</v>
+        <v>0.9502687030111209</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034298766789389</v>
+        <v>1.037737803173016</v>
       </c>
       <c r="J10">
-        <v>1.031271782480322</v>
+        <v>1.012547605577345</v>
       </c>
       <c r="K10">
-        <v>1.034222697327133</v>
+        <v>1.020274578327581</v>
       </c>
       <c r="L10">
-        <v>1.02884925661699</v>
+        <v>1.008009066383617</v>
       </c>
       <c r="M10">
-        <v>1.024679269998502</v>
+        <v>0.9655979313213757</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024230717670703</v>
+        <v>0.9801473155375174</v>
       </c>
       <c r="D11">
-        <v>1.030272364074313</v>
+        <v>1.003359353591736</v>
       </c>
       <c r="E11">
-        <v>1.024831147435686</v>
+        <v>0.9907381330744855</v>
       </c>
       <c r="F11">
-        <v>1.02012504188586</v>
+        <v>0.9446020224137948</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034115875981357</v>
+        <v>1.036422988757359</v>
       </c>
       <c r="J11">
-        <v>1.030877425873769</v>
+        <v>1.010369963838366</v>
       </c>
       <c r="K11">
-        <v>1.033860831616493</v>
+        <v>1.018218194281771</v>
       </c>
       <c r="L11">
-        <v>1.028440155700229</v>
+        <v>1.005836854152172</v>
       </c>
       <c r="M11">
-        <v>1.023752011775771</v>
+        <v>0.9606501614859875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023996160373102</v>
+        <v>0.9788201776061844</v>
       </c>
       <c r="D12">
-        <v>1.030091833289079</v>
+        <v>1.002360458751253</v>
       </c>
       <c r="E12">
-        <v>1.024632812542575</v>
+        <v>0.9896910521096989</v>
       </c>
       <c r="F12">
-        <v>1.019733159843322</v>
+        <v>0.9424615643402909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034047668579912</v>
+        <v>1.035925614921407</v>
       </c>
       <c r="J12">
-        <v>1.030730804068822</v>
+        <v>1.009548763489068</v>
       </c>
       <c r="K12">
-        <v>1.033726249178814</v>
+        <v>1.017442575391836</v>
       </c>
       <c r="L12">
-        <v>1.028288122337454</v>
+        <v>1.005018456695822</v>
       </c>
       <c r="M12">
-        <v>1.023407434091709</v>
+        <v>0.9587808649524994</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024046475146766</v>
+        <v>0.9791057040678487</v>
       </c>
       <c r="D13">
-        <v>1.030130559805678</v>
+        <v>1.002575335715731</v>
       </c>
       <c r="E13">
-        <v>1.024675353984096</v>
+        <v>0.9899162605524343</v>
       </c>
       <c r="F13">
-        <v>1.01981722320801</v>
+        <v>0.9429223608093829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034062311682797</v>
+        <v>1.036032718348963</v>
       </c>
       <c r="J13">
-        <v>1.030762261294511</v>
+        <v>1.009725484445047</v>
       </c>
       <c r="K13">
-        <v>1.033755125237186</v>
+        <v>1.017609493429066</v>
       </c>
       <c r="L13">
-        <v>1.028320737409665</v>
+        <v>1.005194540045291</v>
       </c>
       <c r="M13">
-        <v>1.023481354176991</v>
+        <v>0.9591833023644017</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024211329738275</v>
+        <v>0.980037995613134</v>
       </c>
       <c r="D14">
-        <v>1.030257442267768</v>
+        <v>1.003277058644274</v>
       </c>
       <c r="E14">
-        <v>1.024814752080172</v>
+        <v>0.9906518529312529</v>
       </c>
       <c r="F14">
-        <v>1.020092650288217</v>
+        <v>0.9444258355786544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034110243518676</v>
+        <v>1.036382062034247</v>
       </c>
       <c r="J14">
-        <v>1.030865308932007</v>
+        <v>1.010302339234463</v>
       </c>
       <c r="K14">
-        <v>1.033849710446977</v>
+        <v>1.018154326040561</v>
       </c>
       <c r="L14">
-        <v>1.02842759010741</v>
+        <v>1.005769444912625</v>
       </c>
       <c r="M14">
-        <v>1.023723532025188</v>
+        <v>0.9604963021786389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024312897895187</v>
+        <v>0.9806099413847288</v>
       </c>
       <c r="D15">
-        <v>1.030335612734222</v>
+        <v>1.00370763994572</v>
       </c>
       <c r="E15">
-        <v>1.02490064589718</v>
+        <v>0.9911033162587259</v>
       </c>
       <c r="F15">
-        <v>1.020262340347861</v>
+        <v>0.9453473667194754</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034139739644337</v>
+        <v>1.036596097616122</v>
       </c>
       <c r="J15">
-        <v>1.030928781392465</v>
+        <v>1.010656101338689</v>
       </c>
       <c r="K15">
-        <v>1.033907965063816</v>
+        <v>1.018488431859432</v>
       </c>
       <c r="L15">
-        <v>1.028493415628646</v>
+        <v>1.006122111250848</v>
       </c>
       <c r="M15">
-        <v>1.023872725384397</v>
+        <v>0.9613010355236189</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024904004822817</v>
+        <v>0.9839021306505266</v>
       </c>
       <c r="D16">
-        <v>1.030790506827391</v>
+        <v>1.006187361163983</v>
       </c>
       <c r="E16">
-        <v>1.025400677335895</v>
+        <v>0.9937048117542165</v>
       </c>
       <c r="F16">
-        <v>1.021249867460341</v>
+        <v>0.9506399550461186</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034310866287269</v>
+        <v>1.037823828841702</v>
       </c>
       <c r="J16">
-        <v>1.031297934989692</v>
+        <v>1.01269044257877</v>
       </c>
       <c r="K16">
-        <v>1.034246689416344</v>
+        <v>1.020409440191744</v>
       </c>
       <c r="L16">
-        <v>1.028876396780086</v>
+        <v>1.00815165063267</v>
       </c>
       <c r="M16">
-        <v>1.024740787975994</v>
+        <v>0.9659220261801774</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025274735022631</v>
+        <v>0.9859358100572385</v>
       </c>
       <c r="D17">
-        <v>1.031075768908843</v>
+        <v>1.007720188823665</v>
       </c>
       <c r="E17">
-        <v>1.025714415072168</v>
+        <v>0.9953142493789902</v>
       </c>
       <c r="F17">
-        <v>1.021869197193426</v>
+        <v>0.9538996165394297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034417722073953</v>
+        <v>1.038578448041804</v>
       </c>
       <c r="J17">
-        <v>1.031529245867326</v>
+        <v>1.01394539312409</v>
       </c>
       <c r="K17">
-        <v>1.034458860570038</v>
+        <v>1.021594195798828</v>
       </c>
       <c r="L17">
-        <v>1.029116497156256</v>
+        <v>1.00940493863667</v>
       </c>
       <c r="M17">
-        <v>1.025285034801428</v>
+        <v>0.968767300213245</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025490955846198</v>
+        <v>0.9871110664112077</v>
       </c>
       <c r="D18">
-        <v>1.031242128232066</v>
+        <v>1.00860635429869</v>
       </c>
       <c r="E18">
-        <v>1.025897442228872</v>
+        <v>0.9962451885765308</v>
       </c>
       <c r="F18">
-        <v>1.022230400673473</v>
+        <v>0.9557801201902565</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034479873624972</v>
+        <v>1.039013166331123</v>
       </c>
       <c r="J18">
-        <v>1.031664075826003</v>
+        <v>1.01467000365339</v>
       </c>
       <c r="K18">
-        <v>1.034582507747849</v>
+        <v>1.022278166266321</v>
       </c>
       <c r="L18">
-        <v>1.0292564955577</v>
+        <v>1.010129051251208</v>
       </c>
       <c r="M18">
-        <v>1.0256023907859</v>
+        <v>0.9704084497807758</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025564678214113</v>
+        <v>0.9875099741604318</v>
       </c>
       <c r="D19">
-        <v>1.031298847501257</v>
+        <v>1.008907195525626</v>
       </c>
       <c r="E19">
-        <v>1.025959854716748</v>
+        <v>0.9965613121836193</v>
       </c>
       <c r="F19">
-        <v>1.022353554961806</v>
+        <v>0.9564178771749045</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034501035913339</v>
+        <v>1.039160485186476</v>
       </c>
       <c r="J19">
-        <v>1.031710034144033</v>
+        <v>1.01491584676716</v>
       </c>
       <c r="K19">
-        <v>1.034624649813668</v>
+        <v>1.022510201883563</v>
       </c>
       <c r="L19">
-        <v>1.029304223243681</v>
+        <v>1.010374803303245</v>
       </c>
       <c r="M19">
-        <v>1.025710585209229</v>
+        <v>0.9709649801530201</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02523496123599</v>
+        <v>0.9857187566801191</v>
       </c>
       <c r="D20">
-        <v>1.031045166008724</v>
+        <v>1.007556554266036</v>
       </c>
       <c r="E20">
-        <v>1.025680750956715</v>
+        <v>0.9951423863184786</v>
       </c>
       <c r="F20">
-        <v>1.021802753270503</v>
+        <v>0.953552057097362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034406275625563</v>
+        <v>1.038498050318011</v>
       </c>
       <c r="J20">
-        <v>1.031504437686521</v>
+        <v>1.013811517430164</v>
       </c>
       <c r="K20">
-        <v>1.03443610785424</v>
+        <v>1.0214678195469</v>
       </c>
       <c r="L20">
-        <v>1.029090741633043</v>
+        <v>1.009271192199212</v>
       </c>
       <c r="M20">
-        <v>1.025226652029547</v>
+        <v>0.9684639545865328</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024162785045563</v>
+        <v>0.9797639757877967</v>
       </c>
       <c r="D21">
-        <v>1.030220079796126</v>
+        <v>1.003070789705</v>
       </c>
       <c r="E21">
-        <v>1.024773701554925</v>
+        <v>0.9904356074255033</v>
       </c>
       <c r="F21">
-        <v>1.020011545901315</v>
+        <v>0.9439841073079129</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03409613634182</v>
+        <v>1.036279441307137</v>
       </c>
       <c r="J21">
-        <v>1.030834967844609</v>
+        <v>1.010132816566034</v>
       </c>
       <c r="K21">
-        <v>1.033821862137905</v>
+        <v>1.017994217644581</v>
       </c>
       <c r="L21">
-        <v>1.028396126724806</v>
+        <v>1.005600474347819</v>
       </c>
       <c r="M21">
-        <v>1.023652220946443</v>
+        <v>0.960110546521365</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023488482521965</v>
+        <v>0.9759130777087772</v>
       </c>
       <c r="D22">
-        <v>1.029701052997207</v>
+        <v>1.000173623868084</v>
       </c>
       <c r="E22">
-        <v>1.024203667649822</v>
+        <v>0.9874001092500885</v>
       </c>
       <c r="F22">
-        <v>1.018884926611479</v>
+        <v>0.9377607003010536</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03389955635958</v>
+        <v>1.034832212725838</v>
       </c>
       <c r="J22">
-        <v>1.030413234216387</v>
+        <v>1.007748121648345</v>
       </c>
       <c r="K22">
-        <v>1.033434681284172</v>
+        <v>1.015741642020254</v>
       </c>
       <c r="L22">
-        <v>1.027958960356571</v>
+        <v>1.003225374089529</v>
       </c>
       <c r="M22">
-        <v>1.022661427328571</v>
+        <v>0.9546748889587909</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023845960578084</v>
+        <v>0.9779650649368884</v>
       </c>
       <c r="D23">
-        <v>1.029976223748947</v>
+        <v>1.001717030150093</v>
       </c>
       <c r="E23">
-        <v>1.024505828351661</v>
+        <v>0.9890167971804303</v>
       </c>
       <c r="F23">
-        <v>1.019482210498729</v>
+        <v>0.9410805825892132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034003917233916</v>
+        <v>1.035604543648412</v>
       </c>
       <c r="J23">
-        <v>1.030636880232874</v>
+        <v>1.009019365089307</v>
       </c>
       <c r="K23">
-        <v>1.033640026152118</v>
+        <v>1.016942524107939</v>
       </c>
       <c r="L23">
-        <v>1.02819075175648</v>
+        <v>1.004491080600932</v>
       </c>
       <c r="M23">
-        <v>1.02318675171167</v>
+        <v>0.9575747306605148</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02525293335914</v>
+        <v>0.9858168675246104</v>
       </c>
       <c r="D24">
-        <v>1.031058994232184</v>
+        <v>1.007630518055837</v>
       </c>
       <c r="E24">
-        <v>1.02569596223096</v>
+        <v>0.995220067939558</v>
       </c>
       <c r="F24">
-        <v>1.021832776544583</v>
+        <v>0.9537091683190191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034411448325417</v>
+        <v>1.038534395359942</v>
       </c>
       <c r="J24">
-        <v>1.031515647712729</v>
+        <v>1.013872032847609</v>
       </c>
       <c r="K24">
-        <v>1.034446389162739</v>
+        <v>1.021524945356091</v>
       </c>
       <c r="L24">
-        <v>1.029102379593777</v>
+        <v>1.009331647756659</v>
       </c>
       <c r="M24">
-        <v>1.025253032980122</v>
+        <v>0.9686010802534492</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026884871056712</v>
+        <v>0.9945019988338272</v>
       </c>
       <c r="D25">
-        <v>1.032314342108265</v>
+        <v>1.014184831429796</v>
       </c>
       <c r="E25">
-        <v>1.027078193018232</v>
+        <v>1.002114196584015</v>
       </c>
       <c r="F25">
-        <v>1.024558889811961</v>
+        <v>0.9675555406485156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034877476583387</v>
+        <v>1.041722298813828</v>
       </c>
       <c r="J25">
-        <v>1.032531888495359</v>
+        <v>1.019215819975509</v>
       </c>
       <c r="K25">
-        <v>1.035377866268381</v>
+        <v>1.026566865758171</v>
       </c>
       <c r="L25">
-        <v>1.030158387123597</v>
+        <v>1.01467978079188</v>
       </c>
       <c r="M25">
-        <v>1.027647170896794</v>
+        <v>0.9806793003642668</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001123059880897</v>
+        <v>1.023323631464229</v>
       </c>
       <c r="D2">
-        <v>1.019189721827635</v>
+        <v>1.037672144253937</v>
       </c>
       <c r="E2">
-        <v>1.007393766300544</v>
+        <v>1.025853757815456</v>
       </c>
       <c r="F2">
-        <v>0.9780379752935824</v>
+        <v>1.035973198517889</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044109121426104</v>
+        <v>1.057406784041389</v>
       </c>
       <c r="J2">
-        <v>1.023270232229561</v>
+        <v>1.044828433006839</v>
       </c>
       <c r="K2">
-        <v>1.030388033280699</v>
+        <v>1.048630456519907</v>
       </c>
       <c r="L2">
-        <v>1.018751046378941</v>
+        <v>1.03696428617728</v>
       </c>
       <c r="M2">
-        <v>0.9898119992301445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.046953125487364</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045732621156579</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045456202145388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005769399294641</v>
+        <v>1.028058442452599</v>
       </c>
       <c r="D3">
-        <v>1.0227056155986</v>
+        <v>1.04095177256545</v>
       </c>
       <c r="E3">
-        <v>1.011111567319997</v>
+        <v>1.029759381322636</v>
       </c>
       <c r="F3">
-        <v>0.9853619451515278</v>
+        <v>1.039180799933536</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045758350049049</v>
+        <v>1.059050558088863</v>
       </c>
       <c r="J3">
-        <v>1.026104010832151</v>
+        <v>1.047812371234878</v>
       </c>
       <c r="K3">
-        <v>1.03305598827274</v>
+        <v>1.051086167698041</v>
       </c>
       <c r="L3">
-        <v>1.021604220618256</v>
+        <v>1.040025134683691</v>
       </c>
       <c r="M3">
-        <v>0.996185613459289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.049335746891313</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047618290273527</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047189934716156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008706200884794</v>
+        <v>1.031057503397907</v>
       </c>
       <c r="D4">
-        <v>1.024929283317764</v>
+        <v>1.043032480625289</v>
       </c>
       <c r="E4">
-        <v>1.013467130436126</v>
+        <v>1.03223752374245</v>
       </c>
       <c r="F4">
-        <v>0.9899792885806408</v>
+        <v>1.041221528040814</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046788665854407</v>
+        <v>1.060081808770669</v>
       </c>
       <c r="J4">
-        <v>1.027889792952828</v>
+        <v>1.049698791256649</v>
       </c>
       <c r="K4">
-        <v>1.034735863399299</v>
+        <v>1.05263786689615</v>
       </c>
       <c r="L4">
-        <v>1.023405691428204</v>
+        <v>1.041961836891341</v>
       </c>
       <c r="M4">
-        <v>1.000200178509808</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.050846654022793</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048814059342054</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.048287984998946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009924819176195</v>
+        <v>1.032310737096191</v>
       </c>
       <c r="D5">
-        <v>1.025852273731302</v>
+        <v>1.043905512671687</v>
       </c>
       <c r="E5">
-        <v>1.014445883442687</v>
+        <v>1.033276034658085</v>
       </c>
       <c r="F5">
-        <v>0.9918927873030479</v>
+        <v>1.042074842905572</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047213255832718</v>
+        <v>1.060512565696222</v>
       </c>
       <c r="J5">
-        <v>1.028629500025875</v>
+        <v>1.050488734587835</v>
       </c>
       <c r="K5">
-        <v>1.035431347219205</v>
+        <v>1.053289355194224</v>
       </c>
       <c r="L5">
-        <v>1.024152721857025</v>
+        <v>1.042773813133923</v>
       </c>
       <c r="M5">
-        <v>1.001862969775331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.051478105318418</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049313804858803</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04875572010715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010128510270331</v>
+        <v>1.032529260550116</v>
       </c>
       <c r="D6">
-        <v>1.026006566285287</v>
+        <v>1.044061168135511</v>
       </c>
       <c r="E6">
-        <v>1.014609557605028</v>
+        <v>1.033459562244833</v>
       </c>
       <c r="F6">
-        <v>0.9922124937870804</v>
+        <v>1.042221857900283</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047284052117493</v>
+        <v>1.060590268440398</v>
       </c>
       <c r="J6">
-        <v>1.028753064738644</v>
+        <v>1.05062953221242</v>
       </c>
       <c r="K6">
-        <v>1.035547503325647</v>
+        <v>1.053407764931327</v>
       </c>
       <c r="L6">
-        <v>1.024277558225525</v>
+        <v>1.042919265988075</v>
       </c>
       <c r="M6">
-        <v>1.002140733885041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.051587876175077</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04940068008138</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048848085881107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008722546184856</v>
+        <v>1.031098625228526</v>
       </c>
       <c r="D7">
-        <v>1.02494166230134</v>
+        <v>1.04307023040934</v>
       </c>
       <c r="E7">
-        <v>1.013480253270021</v>
+        <v>1.032278139234482</v>
       </c>
       <c r="F7">
-        <v>0.9900049634985096</v>
+        <v>1.041244369838653</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046794372520995</v>
+        <v>1.060103337578959</v>
       </c>
       <c r="J7">
-        <v>1.027899719778231</v>
+        <v>1.049733131958936</v>
       </c>
       <c r="K7">
-        <v>1.034745198174584</v>
+        <v>1.052672369561758</v>
       </c>
       <c r="L7">
-        <v>1.023415713278463</v>
+        <v>1.041999123097959</v>
       </c>
       <c r="M7">
-        <v>1.000222493118621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.050866403167898</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048829689288509</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048332263757623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002708159512817</v>
+        <v>1.024968873732164</v>
       </c>
       <c r="D8">
-        <v>1.020388849574266</v>
+        <v>1.038822548437271</v>
       </c>
       <c r="E8">
-        <v>1.008660880423468</v>
+        <v>1.027218762613842</v>
       </c>
       <c r="F8">
-        <v>0.9805393044003587</v>
+        <v>1.037079291448108</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044674280859463</v>
+        <v>1.057989264114917</v>
       </c>
       <c r="J8">
-        <v>1.024238094425208</v>
+        <v>1.045876768241127</v>
       </c>
       <c r="K8">
-        <v>1.031299545658291</v>
+        <v>1.049501119657043</v>
       </c>
       <c r="L8">
-        <v>1.019724798814754</v>
+        <v>1.038042240870564</v>
       </c>
       <c r="M8">
-        <v>0.9919894993663585</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.047779374599662</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046386536937557</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.0460945073641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.991543814033905</v>
+        <v>1.013604932371052</v>
       </c>
       <c r="D9">
-        <v>1.011950952058759</v>
+        <v>1.03096211643835</v>
       </c>
       <c r="E9">
-        <v>0.9997621153448185</v>
+        <v>1.017864126310456</v>
       </c>
       <c r="F9">
-        <v>0.9628525664556983</v>
+        <v>1.029441366057182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04064329150842</v>
+        <v>1.053980565700468</v>
       </c>
       <c r="J9">
-        <v>1.017398757006641</v>
+        <v>1.038686246217117</v>
       </c>
       <c r="K9">
-        <v>1.024853064103228</v>
+        <v>1.043572062487372</v>
       </c>
       <c r="L9">
-        <v>1.012859053240928</v>
+        <v>1.030673870077895</v>
       </c>
       <c r="M9">
-        <v>0.9765785298043661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.042074177541493</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041871278552244</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041899176721322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,75 +857,105 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9836707967801217</v>
+        <v>1.005796168532383</v>
       </c>
       <c r="D10">
-        <v>1.006013049204841</v>
+        <v>1.025608944751118</v>
       </c>
       <c r="E10">
-        <v>0.9935218535526704</v>
+        <v>1.011503501529299</v>
       </c>
       <c r="F10">
-        <v>0.9502687030111209</v>
+        <v>1.02440178649086</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037737803173016</v>
+        <v>1.051221746956896</v>
       </c>
       <c r="J10">
-        <v>1.012547605577345</v>
+        <v>1.03378169279227</v>
       </c>
       <c r="K10">
-        <v>1.020274578327581</v>
+        <v>1.039530719948487</v>
       </c>
       <c r="L10">
-        <v>1.008009066383617</v>
+        <v>1.025668117173876</v>
       </c>
       <c r="M10">
-        <v>0.9655979313213757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.038344006450937</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038970505480663</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039058430167365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>0.9801473155375174</v>
+        <v>1.003535230593316</v>
       </c>
       <c r="D11">
-        <v>1.003359353591736</v>
+        <v>1.024252143929458</v>
       </c>
       <c r="E11">
-        <v>0.9907381330744855</v>
+        <v>1.009985672114075</v>
       </c>
       <c r="F11">
-        <v>0.9446020224137948</v>
+        <v>1.024192905220343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036422988757359</v>
+        <v>1.050756749377</v>
       </c>
       <c r="J11">
-        <v>1.010369963838366</v>
+        <v>1.03276167580533</v>
       </c>
       <c r="K11">
-        <v>1.018218194281771</v>
+        <v>1.03873074828523</v>
       </c>
       <c r="L11">
-        <v>1.005836854152172</v>
+        <v>1.02472169864878</v>
       </c>
       <c r="M11">
-        <v>0.9606501614859875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.038672559235694</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039666127730644</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038525506167742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9788201776061844</v>
+        <v>1.003080099127782</v>
       </c>
       <c r="D12">
-        <v>1.002360458751253</v>
+        <v>1.024069132429253</v>
       </c>
       <c r="E12">
-        <v>0.9896910521096989</v>
+        <v>1.009851847227074</v>
       </c>
       <c r="F12">
-        <v>0.9424615643402909</v>
+        <v>1.024792404423268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035925614921407</v>
+        <v>1.050828813445893</v>
       </c>
       <c r="J12">
-        <v>1.009548763489068</v>
+        <v>1.032754673258718</v>
       </c>
       <c r="K12">
-        <v>1.017442575391836</v>
+        <v>1.038749290707792</v>
       </c>
       <c r="L12">
-        <v>1.005018456695822</v>
+        <v>1.024792704432364</v>
       </c>
       <c r="M12">
-        <v>0.9587808649524994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.039459551478608</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040614397959261</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038538616141958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9791057040678487</v>
+        <v>1.004015158166886</v>
       </c>
       <c r="D13">
-        <v>1.002575335715731</v>
+        <v>1.024808346636773</v>
       </c>
       <c r="E13">
-        <v>0.9899162605524343</v>
+        <v>1.010804681773391</v>
       </c>
       <c r="F13">
-        <v>0.9429223608093829</v>
+        <v>1.026086830506553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036032718348963</v>
+        <v>1.051343121001902</v>
       </c>
       <c r="J13">
-        <v>1.009725484445047</v>
+        <v>1.03355855274459</v>
       </c>
       <c r="K13">
-        <v>1.017609493429066</v>
+        <v>1.03943271495169</v>
       </c>
       <c r="L13">
-        <v>1.005194540045291</v>
+        <v>1.025684418991339</v>
       </c>
       <c r="M13">
-        <v>0.9591833023644017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.040688335412163</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041862044999353</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.039019335180783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.980037995613134</v>
+        <v>1.00528678149534</v>
       </c>
       <c r="D14">
-        <v>1.003277058644274</v>
+        <v>1.025734488729406</v>
       </c>
       <c r="E14">
-        <v>0.9906518529312529</v>
+        <v>1.011951182536217</v>
       </c>
       <c r="F14">
-        <v>0.9444258355786544</v>
+        <v>1.027290291947781</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036382062034247</v>
+        <v>1.051895438390108</v>
       </c>
       <c r="J14">
-        <v>1.010302339234463</v>
+        <v>1.034476608435563</v>
       </c>
       <c r="K14">
-        <v>1.018154326040561</v>
+        <v>1.040203233164534</v>
       </c>
       <c r="L14">
-        <v>1.005769444912625</v>
+        <v>1.026667860443367</v>
       </c>
       <c r="M14">
-        <v>0.9604963021786389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.041731592360729</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042859652633622</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039565528236413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9806099413847288</v>
+        <v>1.005919047384771</v>
       </c>
       <c r="D15">
-        <v>1.00370763994572</v>
+        <v>1.02617995706549</v>
       </c>
       <c r="E15">
-        <v>0.9911033162587259</v>
+        <v>1.012488017063418</v>
       </c>
       <c r="F15">
-        <v>0.9453473667194754</v>
+        <v>1.027772568028121</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036596097616122</v>
+        <v>1.052140911897772</v>
       </c>
       <c r="J15">
-        <v>1.010656101338689</v>
+        <v>1.034898031469196</v>
       </c>
       <c r="K15">
-        <v>1.018488431859432</v>
+        <v>1.040555205179862</v>
       </c>
       <c r="L15">
-        <v>1.006122111250848</v>
+        <v>1.02710756745485</v>
       </c>
       <c r="M15">
-        <v>0.9613010355236189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.042119946852785</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043204061388531</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039820217473512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9839021306505266</v>
+        <v>1.009036290005324</v>
       </c>
       <c r="D16">
-        <v>1.006187361163983</v>
+        <v>1.028296491054295</v>
       </c>
       <c r="E16">
-        <v>0.9937048117542165</v>
+        <v>1.014978857651967</v>
       </c>
       <c r="F16">
-        <v>0.9506399550461186</v>
+        <v>1.029698533325426</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037823828841702</v>
+        <v>1.053220762237535</v>
       </c>
       <c r="J16">
-        <v>1.01269044257877</v>
+        <v>1.036820266021574</v>
       </c>
       <c r="K16">
-        <v>1.020409440191744</v>
+        <v>1.042137736807295</v>
       </c>
       <c r="L16">
-        <v>1.00815165063267</v>
+        <v>1.029046930812835</v>
       </c>
       <c r="M16">
-        <v>0.9659220261801774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.043516339161868</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044269149922804</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040942251540707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9859358100572385</v>
+        <v>1.01077280713313</v>
       </c>
       <c r="D17">
-        <v>1.007720188823665</v>
+        <v>1.029445439287797</v>
       </c>
       <c r="E17">
-        <v>0.9953142493789902</v>
+        <v>1.016302461127866</v>
       </c>
       <c r="F17">
-        <v>0.9538996165394297</v>
+        <v>1.030547584983345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038578448041804</v>
+        <v>1.053763795540659</v>
       </c>
       <c r="J17">
-        <v>1.01394539312409</v>
+        <v>1.037823205450269</v>
       </c>
       <c r="K17">
-        <v>1.021594195798828</v>
+        <v>1.042956156367814</v>
       </c>
       <c r="L17">
-        <v>1.00940493863667</v>
+        <v>1.030030562048664</v>
       </c>
       <c r="M17">
-        <v>0.968767300213245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.044040396272274</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044554696588468</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.041523463707915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9871110664112077</v>
+        <v>1.011421866382218</v>
       </c>
       <c r="D18">
-        <v>1.00860635429869</v>
+        <v>1.029808555837448</v>
       </c>
       <c r="E18">
-        <v>0.9962451885765308</v>
+        <v>1.016675207940528</v>
       </c>
       <c r="F18">
-        <v>0.9557801201902565</v>
+        <v>1.03042215555649</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039013166331123</v>
+        <v>1.053849799438913</v>
       </c>
       <c r="J18">
-        <v>1.01467000365339</v>
+        <v>1.038060207166214</v>
       </c>
       <c r="K18">
-        <v>1.022278166266321</v>
+        <v>1.04313185459172</v>
       </c>
       <c r="L18">
-        <v>1.010129051251208</v>
+        <v>1.030212182229075</v>
       </c>
       <c r="M18">
-        <v>0.9704084497807758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.043735641979556</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044076785571277</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.041636131982174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9875099741604318</v>
+        <v>1.011076064812016</v>
       </c>
       <c r="D19">
-        <v>1.008907195525626</v>
+        <v>1.029460994969307</v>
       </c>
       <c r="E19">
-        <v>0.9965613121836193</v>
+        <v>1.016186543895554</v>
       </c>
       <c r="F19">
-        <v>0.9564178771749045</v>
+        <v>1.029359102630674</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039160485186476</v>
+        <v>1.053516332537807</v>
       </c>
       <c r="J19">
-        <v>1.01491584676716</v>
+        <v>1.037594843362371</v>
       </c>
       <c r="K19">
-        <v>1.022510201883563</v>
+        <v>1.042727934081632</v>
       </c>
       <c r="L19">
-        <v>1.010374803303245</v>
+        <v>1.029668528332312</v>
       </c>
       <c r="M19">
-        <v>0.9709649801530201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.042627665320799</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042876106930985</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.041356902999669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9857187566801191</v>
+        <v>1.0078992138211</v>
       </c>
       <c r="D20">
-        <v>1.007556554266036</v>
+        <v>1.027074162180857</v>
       </c>
       <c r="E20">
-        <v>0.9951423863184786</v>
+        <v>1.013237168918158</v>
       </c>
       <c r="F20">
-        <v>0.953552057097362</v>
+        <v>1.025749952361287</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038498050318011</v>
+        <v>1.051989230638729</v>
       </c>
       <c r="J20">
-        <v>1.013811517430164</v>
+        <v>1.035128993700061</v>
       </c>
       <c r="K20">
-        <v>1.0214678195469</v>
+        <v>1.040657084236693</v>
       </c>
       <c r="L20">
-        <v>1.009271192199212</v>
+        <v>1.027051184759093</v>
       </c>
       <c r="M20">
-        <v>0.9684639545865328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.039354643193</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039759774791473</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039896661565677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9797639757877967</v>
+        <v>1.00176825482718</v>
       </c>
       <c r="D21">
-        <v>1.003070789705</v>
+        <v>1.022840671663041</v>
       </c>
       <c r="E21">
-        <v>0.9904356074255033</v>
+        <v>1.008192580688377</v>
       </c>
       <c r="F21">
-        <v>0.9439841073079129</v>
+        <v>1.021571037066957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036279441307137</v>
+        <v>1.049737013028771</v>
       </c>
       <c r="J21">
-        <v>1.010132816566034</v>
+        <v>1.031192231617974</v>
       </c>
       <c r="K21">
-        <v>1.017994217644581</v>
+        <v>1.037401867052806</v>
       </c>
       <c r="L21">
-        <v>1.005600474347819</v>
+        <v>1.02302038682226</v>
       </c>
       <c r="M21">
-        <v>0.960110546521365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.036154948047989</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037186598936832</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037598354422201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9759130777087772</v>
+        <v>0.9978619447844763</v>
       </c>
       <c r="D22">
-        <v>1.000173623868084</v>
+        <v>1.020150578008296</v>
       </c>
       <c r="E22">
-        <v>0.9874001092500885</v>
+        <v>1.004994665902653</v>
       </c>
       <c r="F22">
-        <v>0.9377607003010536</v>
+        <v>1.01900622377267</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034832212725838</v>
+        <v>1.048305594817233</v>
       </c>
       <c r="J22">
-        <v>1.007748121648345</v>
+        <v>1.028696266810018</v>
       </c>
       <c r="K22">
-        <v>1.015741642020254</v>
+        <v>1.035333145384938</v>
       </c>
       <c r="L22">
-        <v>1.003225374089529</v>
+        <v>1.020467822616884</v>
       </c>
       <c r="M22">
-        <v>0.9546748889587909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.034210338066297</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035647561734819</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.036122238934447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779650649368884</v>
+        <v>0.9999158627991828</v>
       </c>
       <c r="D23">
-        <v>1.001717030150093</v>
+        <v>1.021555557229018</v>
       </c>
       <c r="E23">
-        <v>0.9890167971804303</v>
+        <v>1.006667317392376</v>
       </c>
       <c r="F23">
-        <v>0.9410805825892132</v>
+        <v>1.020358488464618</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035604543648412</v>
+        <v>1.04905235028891</v>
       </c>
       <c r="J23">
-        <v>1.009019365089307</v>
+        <v>1.030000453167099</v>
       </c>
       <c r="K23">
-        <v>1.016942524107939</v>
+        <v>1.036408543228039</v>
       </c>
       <c r="L23">
-        <v>1.004491080600932</v>
+        <v>1.021798061887628</v>
       </c>
       <c r="M23">
-        <v>0.9575747306605148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.035233416941629</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036457265106234</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036872979012019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9858168675246104</v>
+        <v>1.007842496855919</v>
       </c>
       <c r="D24">
-        <v>1.007630518055837</v>
+        <v>1.027004275440051</v>
       </c>
       <c r="E24">
-        <v>0.995220067939558</v>
+        <v>1.013150051221455</v>
       </c>
       <c r="F24">
-        <v>0.9537091683190191</v>
+        <v>1.025596759487345</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038534395359942</v>
+        <v>1.051925550721078</v>
       </c>
       <c r="J24">
-        <v>1.013872032847609</v>
+        <v>1.035041963038457</v>
       </c>
       <c r="K24">
-        <v>1.021524945356091</v>
+        <v>1.040573200061938</v>
       </c>
       <c r="L24">
-        <v>1.009331647756659</v>
+        <v>1.026950106674038</v>
       </c>
       <c r="M24">
-        <v>0.9686010802534492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.039188799215992</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039587695790852</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039810094107308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9945019988338272</v>
+        <v>1.01665044414039</v>
       </c>
       <c r="D25">
-        <v>1.014184831429796</v>
+        <v>1.03307973186039</v>
       </c>
       <c r="E25">
-        <v>1.002114196584015</v>
+        <v>1.020378742574677</v>
       </c>
       <c r="F25">
-        <v>0.9675555406485156</v>
+        <v>1.03147058170019</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041722298813828</v>
+        <v>1.055075395958227</v>
       </c>
       <c r="J25">
-        <v>1.019215819975509</v>
+        <v>1.04063016003811</v>
       </c>
       <c r="K25">
-        <v>1.026566865758171</v>
+        <v>1.045185348101342</v>
       </c>
       <c r="L25">
-        <v>1.01467978079188</v>
+        <v>1.032668732117379</v>
       </c>
       <c r="M25">
-        <v>0.9806793003642668</v>
+        <v>1.043599239011089</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043078259158496</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043068229367564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023323631464229</v>
+        <v>1.021445447011632</v>
       </c>
       <c r="D2">
-        <v>1.037672144253937</v>
+        <v>1.035272841994728</v>
       </c>
       <c r="E2">
-        <v>1.025853757815456</v>
+        <v>1.024529131174002</v>
       </c>
       <c r="F2">
-        <v>1.035973198517889</v>
+        <v>1.035051405323079</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057406784041389</v>
+        <v>1.056039742632754</v>
       </c>
       <c r="J2">
-        <v>1.044828433006839</v>
+        <v>1.043003116368579</v>
       </c>
       <c r="K2">
-        <v>1.048630456519907</v>
+        <v>1.046261704995678</v>
       </c>
       <c r="L2">
-        <v>1.03696428617728</v>
+        <v>1.03565699442918</v>
       </c>
       <c r="M2">
-        <v>1.046953125487364</v>
+        <v>1.046043096836344</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045732621156579</v>
+        <v>1.045012399320594</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045456202145388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043790016396735</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023879703015703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028058442452599</v>
+        <v>1.025875833060513</v>
       </c>
       <c r="D3">
-        <v>1.04095177256545</v>
+        <v>1.03820375356849</v>
       </c>
       <c r="E3">
-        <v>1.029759381322636</v>
+        <v>1.028125336842631</v>
       </c>
       <c r="F3">
-        <v>1.039180799933536</v>
+        <v>1.038114898653897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059050558088863</v>
+        <v>1.057475793939565</v>
       </c>
       <c r="J3">
-        <v>1.047812371234878</v>
+        <v>1.045685118425515</v>
       </c>
       <c r="K3">
-        <v>1.051086167698041</v>
+        <v>1.04837007608883</v>
       </c>
       <c r="L3">
-        <v>1.040025134683691</v>
+        <v>1.038410564601695</v>
       </c>
       <c r="M3">
-        <v>1.049335746891313</v>
+        <v>1.048282257008466</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047618290273527</v>
+        <v>1.046784531323574</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047189934716156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045277874708193</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024383899111598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031057503397907</v>
+        <v>1.028685407364298</v>
       </c>
       <c r="D4">
-        <v>1.043032480625289</v>
+        <v>1.040066016923513</v>
       </c>
       <c r="E4">
-        <v>1.03223752374245</v>
+        <v>1.030411137030487</v>
       </c>
       <c r="F4">
-        <v>1.041221528040814</v>
+        <v>1.040065929872702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060081808770669</v>
+        <v>1.05837684352237</v>
       </c>
       <c r="J4">
-        <v>1.049698791256649</v>
+        <v>1.04738275035666</v>
       </c>
       <c r="K4">
-        <v>1.05263786689615</v>
+        <v>1.049703782299505</v>
       </c>
       <c r="L4">
-        <v>1.041961836891341</v>
+        <v>1.040155874662055</v>
       </c>
       <c r="M4">
-        <v>1.050846654022793</v>
+        <v>1.049703696202186</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048814059342054</v>
+        <v>1.047909494586562</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048287984998946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046221871032232</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024700320068878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032310737096191</v>
+        <v>1.02985940124122</v>
       </c>
       <c r="D5">
-        <v>1.043905512671687</v>
+        <v>1.040847703622923</v>
       </c>
       <c r="E5">
-        <v>1.033276034658085</v>
+        <v>1.031368897376388</v>
       </c>
       <c r="F5">
-        <v>1.042074842905572</v>
+        <v>1.040881754992671</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060512565696222</v>
+        <v>1.058753073360727</v>
       </c>
       <c r="J5">
-        <v>1.050488734587835</v>
+        <v>1.048093580932414</v>
       </c>
       <c r="K5">
-        <v>1.053289355194224</v>
+        <v>1.050264030446856</v>
       </c>
       <c r="L5">
-        <v>1.042773813133923</v>
+        <v>1.04088742312757</v>
       </c>
       <c r="M5">
-        <v>1.051478105318418</v>
+        <v>1.050297718789035</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049313804858803</v>
+        <v>1.04837961871863</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04875572010715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046625810023569</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024834086548505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032529260550116</v>
+        <v>1.030063152842206</v>
       </c>
       <c r="D6">
-        <v>1.044061168135511</v>
+        <v>1.040986701402436</v>
       </c>
       <c r="E6">
-        <v>1.033459562244833</v>
+        <v>1.031536901419615</v>
       </c>
       <c r="F6">
-        <v>1.042221857900283</v>
+        <v>1.041021804225995</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060590268440398</v>
+        <v>1.058820755867518</v>
       </c>
       <c r="J6">
-        <v>1.05062953221242</v>
+        <v>1.048219651545766</v>
       </c>
       <c r="K6">
-        <v>1.053407764931327</v>
+        <v>1.050365808964008</v>
       </c>
       <c r="L6">
-        <v>1.042919265988075</v>
+        <v>1.041017423205852</v>
       </c>
       <c r="M6">
-        <v>1.051587876175077</v>
+        <v>1.050400539268725</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04940068008138</v>
+        <v>1.048460993352969</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048848085881107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04670729260914</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024860122343733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031098625228526</v>
+        <v>1.028721135945377</v>
       </c>
       <c r="D7">
-        <v>1.04307023040934</v>
+        <v>1.040098633197521</v>
       </c>
       <c r="E7">
-        <v>1.032278139234482</v>
+        <v>1.030444942899265</v>
       </c>
       <c r="F7">
-        <v>1.041244369838653</v>
+        <v>1.040086283621011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060103337578959</v>
+        <v>1.058395098809763</v>
       </c>
       <c r="J7">
-        <v>1.049733131958936</v>
+        <v>1.047411799249158</v>
       </c>
       <c r="K7">
-        <v>1.052672369561758</v>
+        <v>1.049733194017295</v>
       </c>
       <c r="L7">
-        <v>1.041999123097959</v>
+        <v>1.040186418744325</v>
       </c>
       <c r="M7">
-        <v>1.050866403167898</v>
+        <v>1.049720979655744</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048829689288509</v>
+        <v>1.047923173142371</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048332263757623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046264565482416</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024712169516534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024968873732164</v>
+        <v>1.022980254446012</v>
       </c>
       <c r="D8">
-        <v>1.038822548437271</v>
+        <v>1.036298527156457</v>
       </c>
       <c r="E8">
-        <v>1.027218762613842</v>
+        <v>1.02578003500374</v>
       </c>
       <c r="F8">
-        <v>1.037079291448108</v>
+        <v>1.03610530921925</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057989264114917</v>
+        <v>1.056547653025606</v>
       </c>
       <c r="J8">
-        <v>1.045876768241127</v>
+        <v>1.043942218851046</v>
       </c>
       <c r="K8">
-        <v>1.049501119657043</v>
+        <v>1.047008274221148</v>
       </c>
       <c r="L8">
-        <v>1.038042240870564</v>
+        <v>1.036621765189192</v>
       </c>
       <c r="M8">
-        <v>1.047779374599662</v>
+        <v>1.046817450639218</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046386536937557</v>
+        <v>1.045625244375288</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0460945073641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044342860795465</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024065047334907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013604932371052</v>
+        <v>1.012371321481904</v>
       </c>
       <c r="D9">
-        <v>1.03096211643835</v>
+        <v>1.02929256766246</v>
       </c>
       <c r="E9">
-        <v>1.017864126310456</v>
+        <v>1.017194987179005</v>
       </c>
       <c r="F9">
-        <v>1.029441366057182</v>
+        <v>1.02882470340387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053980565700468</v>
+        <v>1.053047742327184</v>
       </c>
       <c r="J9">
-        <v>1.038686246217117</v>
+        <v>1.037494654778988</v>
       </c>
       <c r="K9">
-        <v>1.043572062487372</v>
+        <v>1.041927621044804</v>
       </c>
       <c r="L9">
-        <v>1.030673870077895</v>
+        <v>1.030015114551832</v>
       </c>
       <c r="M9">
-        <v>1.042074177541493</v>
+        <v>1.041466811328841</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041871278552244</v>
+        <v>1.04139058967028</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.041899176721322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040747128838612</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022830397674851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,105 +935,123 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005796168532383</v>
+        <v>1.005080965260811</v>
       </c>
       <c r="D10">
-        <v>1.025608944751118</v>
+        <v>1.024522852255307</v>
       </c>
       <c r="E10">
-        <v>1.011503501529299</v>
+        <v>1.01135398791007</v>
       </c>
       <c r="F10">
-        <v>1.02440178649086</v>
+        <v>1.024031035475151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051221746956896</v>
+        <v>1.050634826966166</v>
       </c>
       <c r="J10">
-        <v>1.03378169279227</v>
+        <v>1.033094433422034</v>
       </c>
       <c r="K10">
-        <v>1.039530719948487</v>
+        <v>1.038463019006879</v>
       </c>
       <c r="L10">
-        <v>1.025668117173876</v>
+        <v>1.025521224602055</v>
       </c>
       <c r="M10">
-        <v>1.038344006450937</v>
+        <v>1.037979547066085</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038970505480663</v>
+        <v>1.038682077608548</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039058430167365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03831586621989</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02199707179606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003535230593316</v>
+        <v>1.00279214715573</v>
       </c>
       <c r="D11">
-        <v>1.024252143929458</v>
+        <v>1.023184236301601</v>
       </c>
       <c r="E11">
-        <v>1.009985672114075</v>
+        <v>1.00973715515177</v>
       </c>
       <c r="F11">
-        <v>1.024192905220343</v>
+        <v>1.023814224475612</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050756749377</v>
+        <v>1.050171450491239</v>
       </c>
       <c r="J11">
-        <v>1.03276167580533</v>
+        <v>1.032049229099266</v>
       </c>
       <c r="K11">
-        <v>1.03873074828523</v>
+        <v>1.037681787279565</v>
       </c>
       <c r="L11">
-        <v>1.02472169864878</v>
+        <v>1.024477749871213</v>
       </c>
       <c r="M11">
-        <v>1.038672559235694</v>
+        <v>1.0383005921156</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039666127730644</v>
+        <v>1.039371906225881</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038525506167742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037799420029336</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021972922623245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003080099127782</v>
+        <v>1.002235108230892</v>
       </c>
       <c r="D12">
-        <v>1.024069132429253</v>
+        <v>1.022923831810462</v>
       </c>
       <c r="E12">
-        <v>1.009851847227074</v>
+        <v>1.00944731920927</v>
       </c>
       <c r="F12">
-        <v>1.024792404423268</v>
+        <v>1.024369759052146</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050828813445893</v>
+        <v>1.050191077182772</v>
       </c>
       <c r="J12">
-        <v>1.032754673258718</v>
+        <v>1.031945174568898</v>
       </c>
       <c r="K12">
-        <v>1.038749290707792</v>
+        <v>1.037624642281012</v>
       </c>
       <c r="L12">
-        <v>1.024792704432364</v>
+        <v>1.024395734395011</v>
       </c>
       <c r="M12">
-        <v>1.039459551478608</v>
+        <v>1.039044506340884</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040614397959261</v>
+        <v>1.040286213016099</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038538616141958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037759017794071</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022079089633255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004015158166886</v>
+        <v>1.003000146950364</v>
       </c>
       <c r="D13">
-        <v>1.024808346636773</v>
+        <v>1.023502727064999</v>
       </c>
       <c r="E13">
-        <v>1.010804681773391</v>
+        <v>1.010184390373291</v>
       </c>
       <c r="F13">
-        <v>1.026086830506553</v>
+        <v>1.025587795156079</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051343121001902</v>
+        <v>1.050605192733218</v>
       </c>
       <c r="J13">
-        <v>1.03355855274459</v>
+        <v>1.032585916943111</v>
       </c>
       <c r="K13">
-        <v>1.03943271495169</v>
+        <v>1.038150520661603</v>
       </c>
       <c r="L13">
-        <v>1.025684418991339</v>
+        <v>1.025075652754251</v>
       </c>
       <c r="M13">
-        <v>1.040688335412163</v>
+        <v>1.040198215613281</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041862044999353</v>
+        <v>1.04147459383301</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.039019335180783</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038128097059845</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022307200547271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00528678149534</v>
+        <v>1.004125700987791</v>
       </c>
       <c r="D14">
-        <v>1.025734488729406</v>
+        <v>1.024282377931258</v>
       </c>
       <c r="E14">
-        <v>1.011951182536217</v>
+        <v>1.011157189186339</v>
       </c>
       <c r="F14">
-        <v>1.027290291947781</v>
+        <v>1.026724889830275</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051895438390108</v>
+        <v>1.051067808918866</v>
       </c>
       <c r="J14">
-        <v>1.034476608435563</v>
+        <v>1.033363257830746</v>
       </c>
       <c r="K14">
-        <v>1.040203233164534</v>
+        <v>1.038776834872412</v>
       </c>
       <c r="L14">
-        <v>1.026667860443367</v>
+        <v>1.025888417586621</v>
       </c>
       <c r="M14">
-        <v>1.041731592360729</v>
+        <v>1.041176151337093</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042859652633622</v>
+        <v>1.042420622420447</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039565528236413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038572465508319</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022519925980737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005919047384771</v>
+        <v>1.004704162630643</v>
       </c>
       <c r="D15">
-        <v>1.02617995706549</v>
+        <v>1.024670767585038</v>
       </c>
       <c r="E15">
-        <v>1.012488017063418</v>
+        <v>1.011634567355455</v>
       </c>
       <c r="F15">
-        <v>1.027772568028121</v>
+        <v>1.027182377267978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052140911897772</v>
+        <v>1.051278922004929</v>
       </c>
       <c r="J15">
-        <v>1.034898031469196</v>
+        <v>1.033732631046687</v>
       </c>
       <c r="K15">
-        <v>1.040555205179862</v>
+        <v>1.039072528817241</v>
       </c>
       <c r="L15">
-        <v>1.02710756745485</v>
+        <v>1.026269630569087</v>
       </c>
       <c r="M15">
-        <v>1.042119946852785</v>
+        <v>1.041540070855815</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043204061388531</v>
+        <v>1.042745729321928</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039820217473512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038787935889195</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022604872983558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.009036290005324</v>
+        <v>1.007641626547154</v>
       </c>
       <c r="D16">
-        <v>1.028296491054295</v>
+        <v>1.02657672140289</v>
       </c>
       <c r="E16">
-        <v>1.014978857651967</v>
+        <v>1.013956709338518</v>
       </c>
       <c r="F16">
-        <v>1.029698533325426</v>
+        <v>1.029023109065237</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053220762237535</v>
+        <v>1.052235524346627</v>
       </c>
       <c r="J16">
-        <v>1.036820266021574</v>
+        <v>1.035479479371135</v>
       </c>
       <c r="K16">
-        <v>1.042137736807295</v>
+        <v>1.040446831717458</v>
       </c>
       <c r="L16">
-        <v>1.029046930812835</v>
+        <v>1.028042510502033</v>
       </c>
       <c r="M16">
-        <v>1.043516339161868</v>
+        <v>1.042852196645916</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044269149922804</v>
+        <v>1.043744198809109</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040942251540707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039763041612222</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022919377554434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01077280713313</v>
+        <v>1.00931382728125</v>
       </c>
       <c r="D17">
-        <v>1.029445439287797</v>
+        <v>1.027638286524294</v>
       </c>
       <c r="E17">
-        <v>1.016302461127866</v>
+        <v>1.015238126654197</v>
       </c>
       <c r="F17">
-        <v>1.030547584983345</v>
+        <v>1.029840043753726</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053763795540659</v>
+        <v>1.052729285449226</v>
       </c>
       <c r="J17">
-        <v>1.037823205450269</v>
+        <v>1.036418734744559</v>
       </c>
       <c r="K17">
-        <v>1.042956156367814</v>
+        <v>1.041178469981184</v>
       </c>
       <c r="L17">
-        <v>1.030030562048664</v>
+        <v>1.028984149342587</v>
       </c>
       <c r="M17">
-        <v>1.044040396272274</v>
+        <v>1.043344344313237</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044554696588468</v>
+        <v>1.044004469054841</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041523463707915</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040283142889513</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023050698507608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011421866382218</v>
+        <v>1.010004435884112</v>
       </c>
       <c r="D18">
-        <v>1.029808555837448</v>
+        <v>1.028023929159667</v>
       </c>
       <c r="E18">
-        <v>1.016675207940528</v>
+        <v>1.015689448555962</v>
       </c>
       <c r="F18">
-        <v>1.03042215555649</v>
+        <v>1.029730847770745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053849799438913</v>
+        <v>1.052832768172602</v>
       </c>
       <c r="J18">
-        <v>1.038060207166214</v>
+        <v>1.036694743708133</v>
       </c>
       <c r="K18">
-        <v>1.04313185459172</v>
+        <v>1.041375852035695</v>
       </c>
       <c r="L18">
-        <v>1.030212182229075</v>
+        <v>1.0292427478577</v>
       </c>
       <c r="M18">
-        <v>1.043735641979556</v>
+        <v>1.043055390257095</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044076785571277</v>
+        <v>1.04353893669732</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041636131982174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040409998677197</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023015616178418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011076064812016</v>
+        <v>1.009794762510281</v>
       </c>
       <c r="D19">
-        <v>1.029460994969307</v>
+        <v>1.027798140158834</v>
       </c>
       <c r="E19">
-        <v>1.016186543895554</v>
+        <v>1.015384604935501</v>
       </c>
       <c r="F19">
-        <v>1.029359102630674</v>
+        <v>1.02872759175143</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053516332537807</v>
+        <v>1.052576911144701</v>
       </c>
       <c r="J19">
-        <v>1.037594843362371</v>
+        <v>1.036360279395463</v>
       </c>
       <c r="K19">
-        <v>1.042727934081632</v>
+        <v>1.041091627206289</v>
       </c>
       <c r="L19">
-        <v>1.029668528332312</v>
+        <v>1.028879812468969</v>
       </c>
       <c r="M19">
-        <v>1.042627665320799</v>
+        <v>1.042006226287984</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042876106930985</v>
+        <v>1.042384599378856</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041356902999669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040216027347788</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022837393025953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0078992138211</v>
+        <v>1.00703139566785</v>
       </c>
       <c r="D20">
-        <v>1.027074162180857</v>
+        <v>1.025820917195889</v>
       </c>
       <c r="E20">
-        <v>1.013237168918158</v>
+        <v>1.012929773407591</v>
       </c>
       <c r="F20">
-        <v>1.025749952361287</v>
+        <v>1.025307108266471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051989230638729</v>
+        <v>1.051302438190047</v>
       </c>
       <c r="J20">
-        <v>1.035128993700061</v>
+        <v>1.034293933965972</v>
       </c>
       <c r="K20">
-        <v>1.040657084236693</v>
+        <v>1.039424439598465</v>
       </c>
       <c r="L20">
-        <v>1.027051184759093</v>
+        <v>1.026749015669872</v>
       </c>
       <c r="M20">
-        <v>1.039354643193</v>
+        <v>1.038919095184331</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039759774791473</v>
+        <v>1.039415084359942</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039896661565677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039041585624513</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022244148791577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00176825482718</v>
+        <v>1.001351007064421</v>
       </c>
       <c r="D21">
-        <v>1.022840671663041</v>
+        <v>1.022080776013267</v>
       </c>
       <c r="E21">
-        <v>1.008192580688377</v>
+        <v>1.008349780954843</v>
       </c>
       <c r="F21">
-        <v>1.021571037066957</v>
+        <v>1.021340845434941</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049737013028771</v>
+        <v>1.049344337511146</v>
       </c>
       <c r="J21">
-        <v>1.031192231617974</v>
+        <v>1.030792351624798</v>
       </c>
       <c r="K21">
-        <v>1.037401867052806</v>
+        <v>1.036655558224227</v>
       </c>
       <c r="L21">
-        <v>1.02302038682226</v>
+        <v>1.0231746722579</v>
       </c>
       <c r="M21">
-        <v>1.036154948047989</v>
+        <v>1.03592888273226</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037186598936832</v>
+        <v>1.037007682546752</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037598354422201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03708747653486</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021540789269627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9978619447844763</v>
+        <v>0.9977322288401232</v>
       </c>
       <c r="D22">
-        <v>1.020150578008296</v>
+        <v>1.019703929346427</v>
       </c>
       <c r="E22">
-        <v>1.004994665902653</v>
+        <v>1.005445940931719</v>
       </c>
       <c r="F22">
-        <v>1.01900622377267</v>
+        <v>1.018911903424066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048305594817233</v>
+        <v>1.0480994279891</v>
       </c>
       <c r="J22">
-        <v>1.028696266810018</v>
+        <v>1.028572280254935</v>
       </c>
       <c r="K22">
-        <v>1.035333145384938</v>
+        <v>1.034894899103685</v>
       </c>
       <c r="L22">
-        <v>1.020467822616884</v>
+        <v>1.020910279192765</v>
       </c>
       <c r="M22">
-        <v>1.034210338066297</v>
+        <v>1.034117796485844</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035647561734819</v>
+        <v>1.035574320777383</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036122238934447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035827879772709</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02109461662974</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9999158627991828</v>
+        <v>0.9996384402779109</v>
       </c>
       <c r="D23">
-        <v>1.021555557229018</v>
+        <v>1.020946994871992</v>
       </c>
       <c r="E23">
-        <v>1.006667317392376</v>
+        <v>1.006969290577415</v>
       </c>
       <c r="F23">
-        <v>1.020358488464618</v>
+        <v>1.020194291576898</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04905235028891</v>
+        <v>1.048750074865937</v>
       </c>
       <c r="J23">
-        <v>1.030000453167099</v>
+        <v>1.029734907638846</v>
       </c>
       <c r="K23">
-        <v>1.036408543228039</v>
+        <v>1.035811127550357</v>
       </c>
       <c r="L23">
-        <v>1.021798061887628</v>
+        <v>1.022094294669954</v>
       </c>
       <c r="M23">
-        <v>1.035233416941629</v>
+        <v>1.035072235042632</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036457265106234</v>
+        <v>1.036329699707876</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036872979012019</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03646513104413</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02132197271379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007842496855919</v>
+        <v>1.007000794014083</v>
       </c>
       <c r="D24">
-        <v>1.027004275440051</v>
+        <v>1.025773842125005</v>
       </c>
       <c r="E24">
-        <v>1.013150051221455</v>
+        <v>1.012877770655418</v>
       </c>
       <c r="F24">
-        <v>1.025596759487345</v>
+        <v>1.025165661320894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051925550721078</v>
+        <v>1.051253526777959</v>
       </c>
       <c r="J24">
-        <v>1.035041963038457</v>
+        <v>1.034231992155205</v>
       </c>
       <c r="K24">
-        <v>1.040573200061938</v>
+        <v>1.039362969205148</v>
       </c>
       <c r="L24">
-        <v>1.026950106674038</v>
+        <v>1.026682450368837</v>
       </c>
       <c r="M24">
-        <v>1.039188799215992</v>
+        <v>1.038764797147218</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039587695790852</v>
+        <v>1.039252126078095</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039810094107308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038968184500051</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022206260068547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01665044414039</v>
+        <v>1.015205042171209</v>
       </c>
       <c r="D25">
-        <v>1.03307973186039</v>
+        <v>1.031174128780532</v>
       </c>
       <c r="E25">
-        <v>1.020378742574677</v>
+        <v>1.019491162233719</v>
       </c>
       <c r="F25">
-        <v>1.03147058170019</v>
+        <v>1.030753815719646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055075395958227</v>
+        <v>1.054001667690966</v>
       </c>
       <c r="J25">
-        <v>1.04063016003811</v>
+        <v>1.039231311847252</v>
       </c>
       <c r="K25">
-        <v>1.045185348101342</v>
+        <v>1.043307040869395</v>
       </c>
       <c r="L25">
-        <v>1.032668732117379</v>
+        <v>1.03179425446258</v>
       </c>
       <c r="M25">
-        <v>1.043599239011089</v>
+        <v>1.04289276557556</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043078259158496</v>
+        <v>1.042519134577567</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043068229367564</v>
+        <v>1.041753639906779</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023176173866045</v>
       </c>
     </row>
   </sheetData>
